--- a/result/zhangzhuwen_20151129_night.mat.xlsx
+++ b/result/zhangzhuwen_20151129_night.mat.xlsx
@@ -397,7 +397,7 @@
         <v>0.08208333333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04195713251829147</v>
+        <v>0.1445892155170441</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -405,7 +405,7 @@
         <v>0.0867</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.05313117802143097</v>
+        <v>0.1437298357486725</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -413,7 +413,7 @@
         <v>0.10073</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04313408955931664</v>
+        <v>0.09503447264432907</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -421,7 +421,7 @@
         <v>0.1012642857142857</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5241042375564575</v>
+        <v>0.164500504732132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -429,7 +429,7 @@
         <v>0.09631851851851851</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1563754081726074</v>
+        <v>0.3766670227050781</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -437,7 +437,7 @@
         <v>0.09092121212121212</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06918895989656448</v>
+        <v>0.310708612203598</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -445,7 +445,7 @@
         <v>0.09005384615384616</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.01448912173509598</v>
+        <v>0.1447573453187943</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -453,7 +453,7 @@
         <v>0.0905077777777778</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1212868764996529</v>
+        <v>0.1964810490608215</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -461,7 +461,7 @@
         <v>0.09210686274509805</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07480403035879135</v>
+        <v>0.1455654203891754</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -469,7 +469,7 @@
         <v>0.09318859649122808</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6034528017044067</v>
+        <v>0.1492980122566223</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -477,7 +477,7 @@
         <v>0.09255714285714287</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05679126083850861</v>
+        <v>0.2206275761127472</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -485,7 +485,7 @@
         <v>0.09249130434782611</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05404514819383621</v>
+        <v>0.1422631144523621</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -493,7 +493,7 @@
         <v>0.09314533333333336</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04219838604331017</v>
+        <v>0.1619403511285782</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -501,7 +501,7 @@
         <v>0.09499753086419754</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0607568621635437</v>
+        <v>0.09248015284538269</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -509,7 +509,7 @@
         <v>0.0953885057471264</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5704467296600342</v>
+        <v>0.1238005608320236</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -517,7 +517,7 @@
         <v>0.09601609195402296</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05542315170168877</v>
+        <v>0.07291316241025925</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -525,7 +525,7 @@
         <v>0.09604942528735629</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04867781698703766</v>
+        <v>0.1123268455266953</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -533,7 +533,7 @@
         <v>0.09607183908045976</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4545272290706635</v>
+        <v>0.09451660513877869</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -541,7 +541,7 @@
         <v>0.0947758620689655</v>
       </c>
       <c r="B20" t="n">
-        <v>0.082187719643116</v>
+        <v>0.04819159209728241</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -549,7 +549,7 @@
         <v>0.09255057471264365</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2137295007705688</v>
+        <v>0.1047835797071457</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -557,7 +557,7 @@
         <v>0.08998275862068963</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7723218202590942</v>
+        <v>0.2250702381134033</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -565,7 +565,7 @@
         <v>0.08857011494252873</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2786578238010406</v>
+        <v>0.1166922599077225</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -573,7 +573,7 @@
         <v>0.08800919540229885</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2569848597049713</v>
+        <v>0.1028017550706863</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -581,7 +581,7 @@
         <v>0.08775402298850574</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0690106675028801</v>
+        <v>0.02963385358452797</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -589,7 +589,7 @@
         <v>0.08771896551724138</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4611718654632568</v>
+        <v>0.0135568268597126</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -597,7 +597,7 @@
         <v>0.08877011494252873</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2326390743255615</v>
+        <v>0.06293414533138275</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -605,7 +605,7 @@
         <v>0.08982643678160919</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6179139614105225</v>
+        <v>0.02055969461798668</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -613,7 +613,7 @@
         <v>0.09020459770114943</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4900448322296143</v>
+        <v>0.08377822488546371</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -621,7 +621,7 @@
         <v>0.0907580459770115</v>
       </c>
       <c r="B30" t="n">
-        <v>0.004430182743817568</v>
+        <v>0.08072197437286377</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -629,7 +629,7 @@
         <v>0.0907155172413793</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05357938259840012</v>
+        <v>0.1352078318595886</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -637,7 +637,7 @@
         <v>0.09099310344827584</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02256374806165695</v>
+        <v>0.05284810438752174</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -645,7 +645,7 @@
         <v>0.09342471264367816</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06507941335439682</v>
+        <v>0.1432725340127945</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -653,7 +653,7 @@
         <v>0.09703620689655171</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07485594600439072</v>
+        <v>0.05846153944730759</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -661,7 +661,7 @@
         <v>0.100733908045977</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05429010838270187</v>
+        <v>0.1131511628627777</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -669,7 +669,7 @@
         <v>0.1056867816091954</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7373107075691223</v>
+        <v>0.0441560372710228</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -677,7 +677,7 @@
         <v>0.1113758620689655</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3346092104911804</v>
+        <v>0.1132052391767502</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -685,7 +685,7 @@
         <v>0.1171385057471264</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06621236354112625</v>
+        <v>0.1529123038053513</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -693,7 +693,7 @@
         <v>0.1238051724137931</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02167385071516037</v>
+        <v>0.0486067533493042</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -701,7 +701,7 @@
         <v>0.1302390804597701</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07678985595703125</v>
+        <v>0.1377109885215759</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -709,7 +709,7 @@
         <v>0.1366833333333334</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1891096234321594</v>
+        <v>-0.002558372914791107</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -717,7 +717,7 @@
         <v>0.1452396551724138</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3523514568805695</v>
+        <v>0.08923060446977615</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -725,7 +725,7 @@
         <v>0.1541977011494253</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03271627053618431</v>
+        <v>0.0281655564904213</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -733,7 +733,7 @@
         <v>0.1627379310344827</v>
       </c>
       <c r="B44" t="n">
-        <v>0.08228642493486404</v>
+        <v>0.04133264720439911</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -741,7 +741,7 @@
         <v>0.1712051724137931</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06049715727567673</v>
+        <v>0.07239517569541931</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -749,7 +749,7 @@
         <v>0.1791114942528735</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05121885240077972</v>
+        <v>-0.03946740925312042</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -757,7 +757,7 @@
         <v>0.1870655172413793</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6097480058670044</v>
+        <v>0.02177120000123978</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -765,7 +765,7 @@
         <v>0.1940683908045977</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04130193963646889</v>
+        <v>0.1369984149932861</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -773,7 +773,7 @@
         <v>0.1992258620689655</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4839959740638733</v>
+        <v>0.07280030846595764</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -781,7 +781,7 @@
         <v>0.2036609195402299</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01825073920190334</v>
+        <v>0.2106999158859253</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -789,7 +789,7 @@
         <v>0.2084844827586207</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6642036437988281</v>
+        <v>0.1180706322193146</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -797,7 +797,7 @@
         <v>0.2127540229885057</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.08041547983884811</v>
+        <v>-0.0173100158572197</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -805,7 +805,7 @@
         <v>0.2174936781609196</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4049063920974731</v>
+        <v>0.07152373343706131</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -813,7 +813,7 @@
         <v>0.2219063218390805</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7046629786491394</v>
+        <v>0.1016745641827583</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -821,7 +821,7 @@
         <v>0.225014367816092</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1252073049545288</v>
+        <v>0.1694836020469666</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -829,7 +829,7 @@
         <v>0.2272752873563218</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7433840036392212</v>
+        <v>0.06532540917396545</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -837,7 +837,7 @@
         <v>0.2281793103448276</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02156401053071022</v>
+        <v>0.0836450457572937</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -845,7 +845,7 @@
         <v>0.2292390804597701</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6464812159538269</v>
+        <v>0.04415982216596603</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -853,7 +853,7 @@
         <v>0.2304913793103448</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7176868915557861</v>
+        <v>0.1782464981079102</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -861,7 +861,7 @@
         <v>0.2313896551724138</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6816948652267456</v>
+        <v>0.18620765209198</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -869,7 +869,7 @@
         <v>0.231219540229885</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0719607025384903</v>
+        <v>0.2902286648750305</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -877,7 +877,7 @@
         <v>0.2300287356321839</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1930372416973114</v>
+        <v>0.153651624917984</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -885,7 +885,7 @@
         <v>0.2265137931034482</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2100863307714462</v>
+        <v>0.1617932617664337</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -893,7 +893,7 @@
         <v>0.2236189655172414</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05626126378774643</v>
+        <v>0.1728585064411163</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -901,7 +901,7 @@
         <v>0.2210540229885058</v>
       </c>
       <c r="B65" t="n">
-        <v>0.06918933987617493</v>
+        <v>0.1056010499596596</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -909,7 +909,7 @@
         <v>0.2175614942528736</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08187900483608246</v>
+        <v>0.286483496427536</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -917,7 +917,7 @@
         <v>0.2152666666666667</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06209148094058037</v>
+        <v>0.131689727306366</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -925,7 +925,7 @@
         <v>0.2129551724137931</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04579633101820946</v>
+        <v>0.1943723857402802</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -933,7 +933,7 @@
         <v>0.2100798850574712</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2411090880632401</v>
+        <v>0.2244259119033813</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -941,7 +941,7 @@
         <v>0.2072172413793103</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01850388012826443</v>
+        <v>0.1161089763045311</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -949,7 +949,7 @@
         <v>0.2023597701149425</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01818396337330341</v>
+        <v>0.2859197854995728</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -957,7 +957,7 @@
         <v>0.1964212643678161</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6767269968986511</v>
+        <v>0.370620995759964</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -965,7 +965,7 @@
         <v>0.1912971264367816</v>
       </c>
       <c r="B73" t="n">
-        <v>0.579565703868866</v>
+        <v>0.2521332204341888</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -973,7 +973,7 @@
         <v>0.1851655172413793</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2580486834049225</v>
+        <v>0.1045850589871407</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -981,7 +981,7 @@
         <v>0.1800793103448276</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01740911230444908</v>
+        <v>0.1196232438087463</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -989,7 +989,7 @@
         <v>0.1757086206896551</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08673500269651413</v>
+        <v>0.167453870177269</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -997,7 +997,7 @@
         <v>0.1739442528735632</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5887559056282043</v>
+        <v>0.04448391124606133</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>0.1756109195402299</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1143509447574615</v>
+        <v>0.159209817647934</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>0.1789856321839081</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02109968475997448</v>
+        <v>0.107585147023201</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>0.1836264367816092</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2493342161178589</v>
+        <v>0.1835174262523651</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>0.1909925287356322</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.02633510157465935</v>
+        <v>0.09151451289653778</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>0.200246551724138</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07848209142684937</v>
+        <v>0.1217326670885086</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>0.2120591954022989</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6490631103515625</v>
+        <v>0.1353416442871094</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>0.2270195402298851</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2505657374858856</v>
+        <v>0.09756176918745041</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>0.2440281609195403</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2289547622203827</v>
+        <v>0.1520454585552216</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>0.2652097701149426</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7633691430091858</v>
+        <v>0.1541565358638763</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>0.2877442528735633</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1275938153266907</v>
+        <v>0.1466918587684631</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>0.3071178160919541</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01279124151915312</v>
+        <v>0.07202193886041641</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>0.3254333333333334</v>
       </c>
       <c r="B89" t="n">
-        <v>0.482131689786911</v>
+        <v>0.0122881643474102</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>0.3419022988505747</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1226015612483025</v>
+        <v>0.02869613468647003</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>0.3545275862068966</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1534237116575241</v>
+        <v>0.06366932392120361</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>0.3650867816091954</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5315422415733337</v>
+        <v>0.0787539929151535</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1125,7 +1125,7 @@
         <v>0.3712563218390805</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1264158487319946</v>
+        <v>0.1715846657752991</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>0.3727729885057471</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5994327068328857</v>
+        <v>0.1974838376045227</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>0.3733701149425287</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.01270830538123846</v>
+        <v>0.1007426381111145</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1149,7 +1149,7 @@
         <v>0.3730011494252873</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5715788602828979</v>
+        <v>0.07668473571538925</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>0.3727591954022988</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7513086199760437</v>
+        <v>0.1842705905437469</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>0.3723701149425287</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8283360004425049</v>
+        <v>0.129025399684906</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1173,7 +1173,7 @@
         <v>0.3719994252873563</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1035303771495819</v>
+        <v>0.07642674446105957</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1181,7 +1181,7 @@
         <v>0.3720655172413793</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6163904070854187</v>
+        <v>0.1662909537553787</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1189,7 +1189,7 @@
         <v>0.3724091954022988</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1815459132194519</v>
+        <v>0.1156722754240036</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1197,7 +1197,7 @@
         <v>0.3732678160919539</v>
       </c>
       <c r="B102" t="n">
-        <v>0.09667583554983139</v>
+        <v>0.2483206987380981</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1205,7 +1205,7 @@
         <v>0.3767040229885056</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02298612147569656</v>
+        <v>0.3019827902317047</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1213,7 +1213,7 @@
         <v>0.3808821839080458</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.01027684193104506</v>
+        <v>0.2338502109050751</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1221,7 +1221,7 @@
         <v>0.3858327586206896</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6168804168701172</v>
+        <v>0.3316420912742615</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1229,7 +1229,7 @@
         <v>0.390672988505747</v>
       </c>
       <c r="B106" t="n">
-        <v>0.04112965241074562</v>
+        <v>0.3919968008995056</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1237,7 +1237,7 @@
         <v>0.3967839080459769</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04783690720796585</v>
+        <v>0.4477250576019287</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1245,7 +1245,7 @@
         <v>0.4061701149425286</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02934715710580349</v>
+        <v>0.3955644369125366</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1253,7 +1253,7 @@
         <v>0.4191287356321838</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1512477695941925</v>
+        <v>0.4160035848617554</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1261,7 +1261,7 @@
         <v>0.4329827586206895</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2039188593626022</v>
+        <v>0.1962331533432007</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1269,7 +1269,7 @@
         <v>0.4452252873563217</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6164045333862305</v>
+        <v>0.2981691062450409</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1277,7 +1277,7 @@
         <v>0.4580752873563217</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4856612980365753</v>
+        <v>0.2954755127429962</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1285,7 +1285,7 @@
         <v>0.4682528735632183</v>
       </c>
       <c r="B113" t="n">
-        <v>0.1249054148793221</v>
+        <v>0.2469702064990997</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1293,7 +1293,7 @@
         <v>0.4737931034482757</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03220408782362938</v>
+        <v>0.2173531055450439</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1301,7 +1301,7 @@
         <v>0.4741160919540229</v>
       </c>
       <c r="B115" t="n">
-        <v>0.118010476231575</v>
+        <v>0.04499199241399765</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1309,7 +1309,7 @@
         <v>0.4731017241379309</v>
       </c>
       <c r="B116" t="n">
-        <v>0.47867152094841</v>
+        <v>0.1986566781997681</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1317,7 +1317,7 @@
         <v>0.4749022988505747</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02903547510504723</v>
+        <v>0.2340187132358551</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1325,7 +1325,7 @@
         <v>0.4786103448275861</v>
       </c>
       <c r="B118" t="n">
-        <v>0.06501514464616776</v>
+        <v>0.1943689584732056</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1333,7 +1333,7 @@
         <v>0.4846442528735631</v>
       </c>
       <c r="B119" t="n">
-        <v>0.07422346621751785</v>
+        <v>0.278236448764801</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1341,7 +1341,7 @@
         <v>0.4951494252873562</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2516589164733887</v>
+        <v>0.1944762170314789</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1349,7 +1349,7 @@
         <v>0.5115160919540228</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03540081530809402</v>
+        <v>0.2962267100811005</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1357,7 +1357,7 @@
         <v>0.5356212643678159</v>
       </c>
       <c r="B122" t="n">
-        <v>0.06076935678720474</v>
+        <v>0.1783380210399628</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1365,7 +1365,7 @@
         <v>0.5636494252873561</v>
       </c>
       <c r="B123" t="n">
-        <v>0.04662285372614861</v>
+        <v>0.2488433122634888</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1373,7 +1373,7 @@
         <v>0.5919189655172411</v>
       </c>
       <c r="B124" t="n">
-        <v>0.09699001908302307</v>
+        <v>0.2373595237731934</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1381,7 +1381,7 @@
         <v>0.6199741379310342</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04716652631759644</v>
+        <v>0.296695739030838</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1389,7 +1389,7 @@
         <v>0.6473413793103445</v>
       </c>
       <c r="B126" t="n">
-        <v>0.05109581723809242</v>
+        <v>0.1721935570240021</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>0.6753413793103444</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4529921412467957</v>
+        <v>0.3557258248329163</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>0.7029839080459767</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5668545961380005</v>
+        <v>0.3293123245239258</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>0.7299971264367813</v>
       </c>
       <c r="B129" t="n">
-        <v>0.036672193557024</v>
+        <v>0.2881588637828827</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>0.7566729885057467</v>
       </c>
       <c r="B130" t="n">
-        <v>0.04754031449556351</v>
+        <v>0.3281289339065552</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>0.7833097701149421</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5008357763290405</v>
+        <v>0.4806870222091675</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>0.8086494252873558</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6764347553253174</v>
+        <v>0.4064089059829712</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>0.8326758620689649</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2944836318492889</v>
+        <v>0.3857393860816956</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1453,7 +1453,7 @@
         <v>0.8554764367816087</v>
       </c>
       <c r="B134" t="n">
-        <v>0.1111594140529633</v>
+        <v>0.4542969167232513</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1461,7 +1461,7 @@
         <v>0.8768344827586202</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6297253966331482</v>
+        <v>0.3890519738197327</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1469,7 +1469,7 @@
         <v>0.8957695402298845</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6778329014778137</v>
+        <v>0.4509837329387665</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>0.910791954022988</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4767841696739197</v>
+        <v>0.4784976840019226</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>0.9215568965517236</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02696099504828453</v>
+        <v>0.4342844486236572</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1493,7 +1493,7 @@
         <v>0.9287494252873558</v>
       </c>
       <c r="B139" t="n">
-        <v>0.04941831901669502</v>
+        <v>0.4396532475948334</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1501,7 +1501,7 @@
         <v>0.9346528735632179</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3696706891059875</v>
+        <v>0.5114993453025818</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1509,7 +1509,7 @@
         <v>0.937770689655172</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1095536947250366</v>
+        <v>0.3873242735862732</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>0.9412741379310341</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6085171103477478</v>
+        <v>0.4697698652744293</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1525,7 +1525,7 @@
         <v>0.948068965517241</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5671954751014709</v>
+        <v>0.5369739532470703</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>0.9563994252873559</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5070725083351135</v>
+        <v>0.4275229275226593</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1541,7 +1541,7 @@
         <v>0.9647298850574708</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6068674325942993</v>
+        <v>0.5030657649040222</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1549,7 +1549,7 @@
         <v>0.9730603448275857</v>
       </c>
       <c r="B146" t="n">
-        <v>0.01578408665955067</v>
+        <v>0.518597424030304</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>0.9813908045977007</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5649411678314209</v>
+        <v>0.3624178171157837</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1565,7 +1565,7 @@
         <v>0.9897212643678156</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5158707499504089</v>
+        <v>0.5184314846992493</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>0.9961954022988501</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3366065919399261</v>
+        <v>0.4886770248413086</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1581,7 +1581,7 @@
         <v>0.9994097701149421</v>
       </c>
       <c r="B150" t="n">
-        <v>0.6110808849334717</v>
+        <v>0.4336133897304535</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1589,7 +1589,7 @@
         <v>0.9988195402298847</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.08438621461391449</v>
+        <v>0.3710180222988129</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1597,7 +1597,7 @@
         <v>0.9982293103448273</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7015429139137268</v>
+        <v>0.5254982113838196</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>0.9976390804597699</v>
       </c>
       <c r="B153" t="n">
-        <v>0.6016824245452881</v>
+        <v>0.5451478958129883</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1613,7 +1613,7 @@
         <v>0.9970488505747125</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7964525818824768</v>
+        <v>0.5147894024848938</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>0.9964586206896551</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2451578080654144</v>
+        <v>0.507857084274292</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03878588974475861</v>
+        <v>0.7372056841850281</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01113989390432835</v>
+        <v>0.4307527244091034</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04264425113797188</v>
+        <v>0.4456296265125275</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1653,7 +1653,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0360943116247654</v>
+        <v>0.508507251739502</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1661,7 +1661,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B160" t="n">
-        <v>0.08154885470867157</v>
+        <v>0.4227287769317627</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01396529097110033</v>
+        <v>0.5100471973419189</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1677,7 +1677,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02663092873990536</v>
+        <v>0.5890190601348877</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1685,7 +1685,7 @@
         <v>0.9958683908045977</v>
       </c>
       <c r="B163" t="n">
-        <v>0.01037843152880669</v>
+        <v>0.6624269485473633</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>0.9958683908045975</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08213109523057938</v>
+        <v>0.5523266196250916</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1701,7 +1701,7 @@
         <v>0.9958683908045975</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3487503528594971</v>
+        <v>0.457280695438385</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1709,7 +1709,7 @@
         <v>0.9958683908045974</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1344490051269531</v>
+        <v>0.4645760357379913</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>0.9958683908045974</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1677385270595551</v>
+        <v>0.5198886394500732</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>0.9958683908045973</v>
       </c>
       <c r="B168" t="n">
-        <v>0.04181024059653282</v>
+        <v>0.4780116081237793</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>0.9958683908045973</v>
       </c>
       <c r="B169" t="n">
-        <v>0.1839105933904648</v>
+        <v>0.6037744879722595</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1741,7 +1741,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1179067939519882</v>
+        <v>0.45450359582901</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B171" t="n">
-        <v>0.209026426076889</v>
+        <v>0.5395922064781189</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5354409217834473</v>
+        <v>0.4783006310462952</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7968981862068176</v>
+        <v>0.5533826351165771</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1773,7 +1773,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B174" t="n">
-        <v>0.304436981678009</v>
+        <v>0.5450301766395569</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1781,7 +1781,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1906945407390594</v>
+        <v>0.6407496333122253</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5764202475547791</v>
+        <v>0.7061920762062073</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1549288034439087</v>
+        <v>0.6685570478439331</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>0.9958683908045972</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4685002863407135</v>
+        <v>0.5653567910194397</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1813,7 +1813,7 @@
         <v>0.9964586206896547</v>
       </c>
       <c r="B179" t="n">
-        <v>0.1626296639442444</v>
+        <v>0.332486093044281</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1821,7 +1821,7 @@
         <v>0.9970488505747122</v>
       </c>
       <c r="B180" t="n">
-        <v>0.1648057550191879</v>
+        <v>0.3715323805809021</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1829,7 +1829,7 @@
         <v>0.9976390804597697</v>
       </c>
       <c r="B181" t="n">
-        <v>0.1815276145935059</v>
+        <v>0.2772496938705444</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>0.9982293103448271</v>
       </c>
       <c r="B182" t="n">
-        <v>0.1595277637243271</v>
+        <v>0.2484046965837479</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>0.9988195402298846</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1791650205850601</v>
+        <v>0.3080953657627106</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1853,7 +1853,7 @@
         <v>0.999409770114942</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1610696762800217</v>
+        <v>0.2602264881134033</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1861,7 +1861,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1731489598751068</v>
+        <v>0.2870042026042938</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B186" t="n">
-        <v>0.1579198688268661</v>
+        <v>0.2567324936389923</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B187" t="n">
-        <v>0.1837063580751419</v>
+        <v>0.2899676561355591</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B188" t="n">
-        <v>0.1668770462274551</v>
+        <v>0.2211286723613739</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1893,7 +1893,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B189" t="n">
-        <v>0.1766788065433502</v>
+        <v>0.2805396318435669</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B190" t="n">
-        <v>0.1768773198127747</v>
+        <v>0.2768285870552063</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1909,7 +1909,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1741767376661301</v>
+        <v>0.3136940598487854</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1805184632539749</v>
+        <v>0.3521323204040527</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1925,7 +1925,7 @@
         <v>0.9992873563218386</v>
       </c>
       <c r="B193" t="n">
-        <v>0.1713777035474777</v>
+        <v>0.3268485069274902</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>0.9959178160919536</v>
       </c>
       <c r="B194" t="n">
-        <v>0.1774545162916183</v>
+        <v>0.3411183953285217</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1941,7 +1941,7 @@
         <v>0.9925482758620686</v>
       </c>
       <c r="B195" t="n">
-        <v>0.1496144384145737</v>
+        <v>0.4672033190727234</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>0.9891787356321836</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1569893211126328</v>
+        <v>0.4729936122894287</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1957,7 +1957,7 @@
         <v>0.9858091954022986</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1712982654571533</v>
+        <v>0.4253894090652466</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>0.9824396551724136</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1644277423620224</v>
+        <v>0.3709276914596558</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1973,7 +1973,7 @@
         <v>0.9790701149425286</v>
       </c>
       <c r="B199" t="n">
-        <v>0.1822706758975983</v>
+        <v>0.4091749787330627</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>0.9757005747126436</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1738279312849045</v>
+        <v>0.2939590811729431</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1989,7 +1989,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B201" t="n">
-        <v>0.1899156123399734</v>
+        <v>0.2778285145759583</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B202" t="n">
-        <v>0.1792519688606262</v>
+        <v>0.2316042184829712</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2005,7 +2005,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B203" t="n">
-        <v>0.1499685496091843</v>
+        <v>0.2594431936740875</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2013,7 +2013,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B204" t="n">
-        <v>0.157576858997345</v>
+        <v>0.2967000305652618</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B205" t="n">
-        <v>0.1716210246086121</v>
+        <v>0.3649201989173889</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B206" t="n">
-        <v>0.1618209928274155</v>
+        <v>0.4192792177200317</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>0.9745304597701149</v>
       </c>
       <c r="B207" t="n">
-        <v>0.1858514696359634</v>
+        <v>0.2347211390733719</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>0.9745304597701148</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1679678857326508</v>
+        <v>0.3506678938865662</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2053,7 +2053,7 @@
         <v>0.9745304597701148</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1766620874404907</v>
+        <v>0.2424533069133759</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>0.9745304597701147</v>
       </c>
       <c r="B210" t="n">
-        <v>0.164524182677269</v>
+        <v>0.2401775568723679</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>0.9745304597701147</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1695897430181503</v>
+        <v>0.2845042645931244</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>0.9745304597701145</v>
       </c>
       <c r="B212" t="n">
-        <v>0.1720959395170212</v>
+        <v>0.2646806240081787</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2085,7 +2085,7 @@
         <v>0.9745304597701145</v>
       </c>
       <c r="B213" t="n">
-        <v>0.1558586955070496</v>
+        <v>0.2731385827064514</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2093,7 +2093,7 @@
         <v>0.9745304597701145</v>
       </c>
       <c r="B214" t="n">
-        <v>0.1599962115287781</v>
+        <v>0.3298549056053162</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>0.9745304597701144</v>
       </c>
       <c r="B215" t="n">
-        <v>0.1738997250795364</v>
+        <v>0.320054292678833</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2109,7 +2109,7 @@
         <v>0.9745304597701145</v>
       </c>
       <c r="B216" t="n">
-        <v>0.1734139770269394</v>
+        <v>0.2736717760562897</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>0.9745304597701144</v>
       </c>
       <c r="B217" t="n">
-        <v>0.1787500232458115</v>
+        <v>0.2856302857398987</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>0.9745304597701145</v>
       </c>
       <c r="B218" t="n">
-        <v>0.1616416722536087</v>
+        <v>0.3156259059906006</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>0.9743781609195398</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1755068004131317</v>
+        <v>0.2911435961723328</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2141,7 +2141,7 @@
         <v>0.9742258620689652</v>
       </c>
       <c r="B220" t="n">
-        <v>0.1652388572692871</v>
+        <v>0.3946564197540283</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2149,7 +2149,7 @@
         <v>0.9740735632183904</v>
       </c>
       <c r="B221" t="n">
-        <v>0.1737750172615051</v>
+        <v>0.2821003794670105</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>0.9746339080459768</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1792610883712769</v>
+        <v>0.3279179930686951</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>0.9778511494252872</v>
       </c>
       <c r="B223" t="n">
-        <v>0.1605029553174973</v>
+        <v>0.2528746426105499</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>0.9810683908045975</v>
       </c>
       <c r="B224" t="n">
-        <v>0.1885940581560135</v>
+        <v>0.2900025546550751</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>0.984285632183908</v>
       </c>
       <c r="B225" t="n">
-        <v>0.1768519133329391</v>
+        <v>0.2772677540779114</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>0.987655172413793</v>
       </c>
       <c r="B226" t="n">
-        <v>0.18094801902771</v>
+        <v>0.3011590540409088</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>0.9910247126436781</v>
       </c>
       <c r="B227" t="n">
-        <v>0.1697033494710922</v>
+        <v>0.215283215045929</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2205,7 +2205,7 @@
         <v>0.9943942528735631</v>
       </c>
       <c r="B228" t="n">
-        <v>0.1696707457304001</v>
+        <v>0.2462365180253983</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>0.9977637931034482</v>
       </c>
       <c r="B229" t="n">
-        <v>0.1737808883190155</v>
+        <v>0.3041127026081085</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>0.9989339080459769</v>
       </c>
       <c r="B230" t="n">
-        <v>0.1859128177165985</v>
+        <v>0.2511717081069946</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2229,7 +2229,7 @@
         <v>0.9989339080459769</v>
       </c>
       <c r="B231" t="n">
-        <v>0.1602136194705963</v>
+        <v>0.2218698263168335</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2237,7 +2237,7 @@
         <v>0.9989339080459769</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1819934546947479</v>
+        <v>0.2882553339004517</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>0.9989339080459768</v>
       </c>
       <c r="B233" t="n">
-        <v>0.1701376885175705</v>
+        <v>0.2701635360717773</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>0.9989339080459768</v>
       </c>
       <c r="B234" t="n">
-        <v>0.1686226576566696</v>
+        <v>0.25496506690979</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>0.9989339080459767</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1675618290901184</v>
+        <v>0.2431787997484207</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>0.9989339080459767</v>
       </c>
       <c r="B236" t="n">
-        <v>0.1664534360170364</v>
+        <v>0.2579464912414551</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>0.9989339080459766</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1617732495069504</v>
+        <v>0.3169988691806793</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>0.9989339080459766</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1542551070451736</v>
+        <v>0.2120737284421921</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2293,7 +2293,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B239" t="n">
-        <v>0.1770191490650177</v>
+        <v>0.3256822228431702</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B240" t="n">
-        <v>0.1831246316432953</v>
+        <v>0.321222722530365</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2309,7 +2309,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B241" t="n">
-        <v>0.1827681511640549</v>
+        <v>0.3005704283714294</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1726136207580566</v>
+        <v>0.3723602294921875</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B243" t="n">
-        <v>0.161230057477951</v>
+        <v>0.3827725052833557</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B244" t="n">
-        <v>0.1752997636795044</v>
+        <v>0.3779921531677246</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B245" t="n">
-        <v>0.1675060838460922</v>
+        <v>0.3456078171730042</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2349,7 +2349,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B246" t="n">
-        <v>0.1707849055528641</v>
+        <v>0.2806841135025024</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>0.9989339080459765</v>
       </c>
       <c r="B247" t="n">
-        <v>0.1979916244745255</v>
+        <v>0.3117131590843201</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>0.9990862068965513</v>
       </c>
       <c r="B248" t="n">
-        <v>0.1727750897407532</v>
+        <v>0.3353555798530579</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>0.9992385057471259</v>
       </c>
       <c r="B249" t="n">
-        <v>0.1747735738754272</v>
+        <v>0.346433699131012</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>0.9993908045977007</v>
       </c>
       <c r="B250" t="n">
-        <v>0.1604382693767548</v>
+        <v>0.3624840378761292</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>0.9995431034482753</v>
       </c>
       <c r="B251" t="n">
-        <v>0.1662907898426056</v>
+        <v>0.3328549861907959</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>0.9996954022988501</v>
       </c>
       <c r="B252" t="n">
-        <v>0.1549817770719528</v>
+        <v>0.2635431587696075</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2405,7 +2405,7 @@
         <v>0.9998477011494248</v>
       </c>
       <c r="B253" t="n">
-        <v>0.1588112264871597</v>
+        <v>0.262175589799881</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B254" t="n">
-        <v>0.1632668823003769</v>
+        <v>0.3199615478515625</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1755518317222595</v>
+        <v>0.2836288809776306</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B256" t="n">
-        <v>0.176410511136055</v>
+        <v>0.2198860198259354</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B257" t="n">
-        <v>0.1667905449867249</v>
+        <v>0.3312405943870544</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B258" t="n">
-        <v>0.1632976233959198</v>
+        <v>0.2623724639415741</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2453,7 +2453,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1750677525997162</v>
+        <v>0.3345209956169128</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B260" t="n">
-        <v>0.178410068154335</v>
+        <v>0.3363486528396606</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1627260148525238</v>
+        <v>0.3650048971176147</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B262" t="n">
-        <v>0.1670075058937073</v>
+        <v>0.2830275893211365</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B263" t="n">
-        <v>0.1650079786777496</v>
+        <v>0.3104432225227356</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B264" t="n">
-        <v>0.1622555404901505</v>
+        <v>0.282530665397644</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B265" t="n">
-        <v>0.17756187915802</v>
+        <v>0.2306503504514694</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B266" t="n">
-        <v>0.1730193644762039</v>
+        <v>0.3253877758979797</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1722286343574524</v>
+        <v>0.3644986748695374</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B268" t="n">
-        <v>0.1642166972160339</v>
+        <v>0.3609350919723511</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B269" t="n">
-        <v>0.1585372686386108</v>
+        <v>0.38279789686203</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B270" t="n">
-        <v>0.1609294563531876</v>
+        <v>0.2769190967082977</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B271" t="n">
-        <v>0.16024349629879</v>
+        <v>0.3533191084861755</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1680523753166199</v>
+        <v>0.2726027965545654</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B273" t="n">
-        <v>0.1809639632701874</v>
+        <v>0.3313723206520081</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B274" t="n">
-        <v>0.1775745153427124</v>
+        <v>0.3171015381813049</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B275" t="n">
-        <v>0.1832540929317474</v>
+        <v>0.3573057055473328</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1641577631235123</v>
+        <v>0.2518359124660492</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B277" t="n">
-        <v>0.1765405237674713</v>
+        <v>0.3439648151397705</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1518471091985703</v>
+        <v>0.3038173317909241</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1741374582052231</v>
+        <v>0.3829467296600342</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B280" t="n">
-        <v>0.1621951311826706</v>
+        <v>0.2860753238201141</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B281" t="n">
-        <v>0.1598545163869858</v>
+        <v>0.3324735164642334</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1641791462898254</v>
+        <v>0.4225544929504395</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B283" t="n">
-        <v>0.1580350250005722</v>
+        <v>0.3522729277610779</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B284" t="n">
-        <v>0.1808736622333527</v>
+        <v>0.3283430933952332</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B285" t="n">
-        <v>0.1880226731300354</v>
+        <v>0.372583270072937</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B286" t="n">
-        <v>0.1843578964471817</v>
+        <v>0.3257461190223694</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B287" t="n">
-        <v>0.1610057651996613</v>
+        <v>0.3391971588134766</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B288" t="n">
-        <v>0.1572642773389816</v>
+        <v>0.2835648655891418</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B289" t="n">
-        <v>0.1695699840784073</v>
+        <v>0.3057534992694855</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1792131364345551</v>
+        <v>0.4248177409172058</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B291" t="n">
-        <v>0.1852841973304749</v>
+        <v>0.2995838522911072</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B292" t="n">
-        <v>0.1828781217336655</v>
+        <v>0.2195071578025818</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B293" t="n">
-        <v>0.1772771626710892</v>
+        <v>0.3126042485237122</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B294" t="n">
-        <v>0.185827374458313</v>
+        <v>0.3936875462532043</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B295" t="n">
-        <v>0.1699169129133224</v>
+        <v>0.4724440574645996</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B296" t="n">
-        <v>0.1652860641479492</v>
+        <v>0.4878968000411987</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B297" t="n">
-        <v>0.1874080896377563</v>
+        <v>0.4874297380447388</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1660409718751907</v>
+        <v>0.5206018686294556</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B299" t="n">
-        <v>0.1729768365621567</v>
+        <v>0.4604493975639343</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B300" t="n">
-        <v>0.1741336733102798</v>
+        <v>0.4694057106971741</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B301" t="n">
-        <v>0.1698711514472961</v>
+        <v>0.3733271360397339</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B302" t="n">
-        <v>0.1627437323331833</v>
+        <v>0.429938793182373</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B303" t="n">
-        <v>0.1920159459114075</v>
+        <v>0.3275008201599121</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B304" t="n">
-        <v>0.1686870902776718</v>
+        <v>0.3833954334259033</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B305" t="n">
-        <v>0.1609450429677963</v>
+        <v>0.3514271974563599</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="B306" t="n">
-        <v>0.1537469476461411</v>
+        <v>0.3403534889221191</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>0.9998005747126433</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1733109802007675</v>
+        <v>0.2958520650863647</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>0.9989459770114939</v>
       </c>
       <c r="B308" t="n">
-        <v>0.1716438978910446</v>
+        <v>0.4048635363578796</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>0.9980913793103445</v>
       </c>
       <c r="B309" t="n">
-        <v>0.1663654148578644</v>
+        <v>0.3021464347839355</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>0.9972367816091952</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1605355590581894</v>
+        <v>0.5485386252403259</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2869,7 +2869,7 @@
         <v>0.9963821839080458</v>
       </c>
       <c r="B311" t="n">
-        <v>0.1590012311935425</v>
+        <v>0.4407503008842468</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>0.9955275862068964</v>
       </c>
       <c r="B312" t="n">
-        <v>0.1519377082586288</v>
+        <v>0.4207839369773865</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>0.994672988505747</v>
       </c>
       <c r="B313" t="n">
-        <v>0.1753761321306229</v>
+        <v>0.375048816204071</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2893,7 +2893,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1863277852535248</v>
+        <v>0.3347785472869873</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B315" t="n">
-        <v>0.1741493344306946</v>
+        <v>0.4817593097686768</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B316" t="n">
-        <v>0.1905467659235001</v>
+        <v>0.3741062879562378</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B317" t="n">
-        <v>0.1836784183979034</v>
+        <v>0.5222058296203613</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B318" t="n">
-        <v>0.1704401075839996</v>
+        <v>0.3982359766960144</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2933,7 +2933,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B319" t="n">
-        <v>0.1835658252239227</v>
+        <v>0.3702012300491333</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B320" t="n">
-        <v>0.1897724717855453</v>
+        <v>0.4748751521110535</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>0.9938183908045977</v>
       </c>
       <c r="B321" t="n">
-        <v>0.167004406452179</v>
+        <v>0.3889588713645935</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>0.9938183908045976</v>
       </c>
       <c r="B322" t="n">
-        <v>0.1835139691829681</v>
+        <v>0.3634762763977051</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>0.9938183908045974</v>
       </c>
       <c r="B323" t="n">
-        <v>0.1879634708166122</v>
+        <v>0.3448101282119751</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>0.991576436781609</v>
       </c>
       <c r="B324" t="n">
-        <v>0.1682139039039612</v>
+        <v>0.5115500688552856</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2981,7 +2981,7 @@
         <v>0.9870379310344825</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1634194850921631</v>
+        <v>0.3759874701499939</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2989,7 +2989,7 @@
         <v>0.9789942528735629</v>
       </c>
       <c r="B326" t="n">
-        <v>0.1732482016086578</v>
+        <v>0.4229239225387573</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>0.9676488505747123</v>
       </c>
       <c r="B327" t="n">
-        <v>0.1655514538288116</v>
+        <v>0.478234589099884</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>0.9535643678160918</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1672520786523819</v>
+        <v>0.4967415332794189</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>0.9359252873563216</v>
       </c>
       <c r="B329" t="n">
-        <v>0.1782609224319458</v>
+        <v>0.4477357268333435</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3021,7 +3021,7 @@
         <v>0.9159591954022988</v>
       </c>
       <c r="B330" t="n">
-        <v>0.1833885908126831</v>
+        <v>0.4590652585029602</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3029,7 +3029,7 @@
         <v>0.8927097701149423</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1790771484375</v>
+        <v>0.48378986120224</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>0.86875</v>
       </c>
       <c r="B332" t="n">
-        <v>0.1390140354633331</v>
+        <v>0.4343562722206116</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>0.8423816091954023</v>
       </c>
       <c r="B333" t="n">
-        <v>0.1690417379140854</v>
+        <v>0.3477985262870789</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>0.8152419540229886</v>
       </c>
       <c r="B334" t="n">
-        <v>0.1562414616346359</v>
+        <v>0.2738578617572784</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>0.7872942528735632</v>
       </c>
       <c r="B335" t="n">
-        <v>0.1608801484107971</v>
+        <v>0.3419798612594604</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>0.7584770114942531</v>
       </c>
       <c r="B336" t="n">
-        <v>0.1661332845687866</v>
+        <v>0.251218318939209</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>0.7292379310344831</v>
       </c>
       <c r="B337" t="n">
-        <v>0.1621871143579483</v>
+        <v>0.3269383311271667</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3085,7 +3085,7 @@
         <v>0.6989344827586209</v>
       </c>
       <c r="B338" t="n">
-        <v>0.1810840517282486</v>
+        <v>0.25428107380867</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>0.6688097701149428</v>
       </c>
       <c r="B339" t="n">
-        <v>0.17568738758564</v>
+        <v>0.3255636692047119</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>0.6395155172413796</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1756488382816315</v>
+        <v>0.2305969148874283</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3109,7 +3109,7 @@
         <v>0.6108304597701152</v>
       </c>
       <c r="B341" t="n">
-        <v>0.1826813817024231</v>
+        <v>0.2551710605621338</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>0.5824551724137933</v>
       </c>
       <c r="B342" t="n">
-        <v>0.1792672425508499</v>
+        <v>0.2762951552867889</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>0.5539270114942529</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1685127168893814</v>
+        <v>0.3355463743209839</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>0.5246936781609195</v>
       </c>
       <c r="B344" t="n">
-        <v>0.1654444485902786</v>
+        <v>0.3464957475662231</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>0.4953218390804599</v>
       </c>
       <c r="B345" t="n">
-        <v>0.171244889497757</v>
+        <v>0.3039617538452148</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>0.4668574712643679</v>
       </c>
       <c r="B346" t="n">
-        <v>0.1743402779102325</v>
+        <v>0.2924828827381134</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>0.4387385057471265</v>
       </c>
       <c r="B347" t="n">
-        <v>0.157166451215744</v>
+        <v>0.1737857460975647</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3165,7 +3165,7 @@
         <v>0.4103603448275862</v>
       </c>
       <c r="B348" t="n">
-        <v>0.1648446768522263</v>
+        <v>0.2354906499385834</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>0.3819597701149425</v>
       </c>
       <c r="B349" t="n">
-        <v>0.1724263876676559</v>
+        <v>0.2419338524341583</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>0.3529454022988506</v>
       </c>
       <c r="B350" t="n">
-        <v>0.168280154466629</v>
+        <v>0.195172980427742</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3189,7 +3189,7 @@
         <v>0.3244672413793104</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1698758155107498</v>
+        <v>0.1552338600158691</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3197,7 +3197,7 @@
         <v>0.2957735632183908</v>
       </c>
       <c r="B352" t="n">
-        <v>0.17470483481884</v>
+        <v>0.2446968257427216</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3205,7 +3205,7 @@
         <v>0.2676850574712644</v>
       </c>
       <c r="B353" t="n">
-        <v>0.178451731801033</v>
+        <v>0.261724591255188</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3213,7 +3213,7 @@
         <v>0.2409132183908045</v>
       </c>
       <c r="B354" t="n">
-        <v>0.1750091016292572</v>
+        <v>0.2105482220649719</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3221,7 +3221,7 @@
         <v>0.2167109195402299</v>
       </c>
       <c r="B355" t="n">
-        <v>0.1643846184015274</v>
+        <v>0.1895338594913483</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>0.1950431034482759</v>
       </c>
       <c r="B356" t="n">
-        <v>0.1303166002035141</v>
+        <v>0.3184312283992767</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>0.1769683908045977</v>
       </c>
       <c r="B357" t="n">
-        <v>0.1152451187372208</v>
+        <v>0.1985093951225281</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>0.1623936781609195</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5090110898017883</v>
+        <v>0.3308055996894836</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>0.1504833333333334</v>
       </c>
       <c r="B359" t="n">
-        <v>0.1303233206272125</v>
+        <v>0.2720060348510742</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>0.1421609195402299</v>
       </c>
       <c r="B360" t="n">
-        <v>0.2593431770801544</v>
+        <v>0.2696616053581238</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3269,7 +3269,7 @@
         <v>0.1359270114942528</v>
       </c>
       <c r="B361" t="n">
-        <v>0.1827419549226761</v>
+        <v>0.330565333366394</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>0.1329385057471264</v>
       </c>
       <c r="B362" t="n">
-        <v>0.09953624755144119</v>
+        <v>0.2249973267316818</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>0.1315126436781609</v>
       </c>
       <c r="B363" t="n">
-        <v>0.1204091683030128</v>
+        <v>0.3714529871940613</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>0.1316971264367816</v>
       </c>
       <c r="B364" t="n">
-        <v>0.3932647407054901</v>
+        <v>0.3332068920135498</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>0.13285</v>
       </c>
       <c r="B365" t="n">
-        <v>0.5008495450019836</v>
+        <v>0.2419644594192505</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>0.1351390804597701</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3717558979988098</v>
+        <v>0.2430810779333115</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>0.1391885057471264</v>
       </c>
       <c r="B367" t="n">
-        <v>0.315877377986908</v>
+        <v>0.1740081906318665</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>0.1429298850574712</v>
       </c>
       <c r="B368" t="n">
-        <v>0.1921465694904327</v>
+        <v>0.3006768822669983</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>0.1452011494252873</v>
       </c>
       <c r="B369" t="n">
-        <v>0.1638025194406509</v>
+        <v>0.157117486000061</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>0.1470362068965517</v>
       </c>
       <c r="B370" t="n">
-        <v>0.2791573703289032</v>
+        <v>0.1896417438983917</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>0.1480218390804598</v>
       </c>
       <c r="B371" t="n">
-        <v>0.1959564834833145</v>
+        <v>0.2260491997003555</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>0.148598275862069</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2203111201524734</v>
+        <v>0.2170152515172958</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>0.1496103448275862</v>
       </c>
       <c r="B373" t="n">
-        <v>0.1746224015951157</v>
+        <v>0.2427967935800552</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>0.1510672413793104</v>
       </c>
       <c r="B374" t="n">
-        <v>0.160417839884758</v>
+        <v>0.2349234372377396</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3381,7 +3381,7 @@
         <v>0.151664367816092</v>
       </c>
       <c r="B375" t="n">
-        <v>0.113273873925209</v>
+        <v>0.3274387121200562</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3389,7 +3389,7 @@
         <v>0.1519327586206897</v>
       </c>
       <c r="B376" t="n">
-        <v>0.1233144477009773</v>
+        <v>0.3349100947380066</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>0.1531310344827587</v>
       </c>
       <c r="B377" t="n">
-        <v>0.144560769200325</v>
+        <v>0.1772578060626984</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>0.1548862068965517</v>
       </c>
       <c r="B378" t="n">
-        <v>0.4281062483787537</v>
+        <v>0.2187669277191162</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>0.157780459770115</v>
       </c>
       <c r="B379" t="n">
-        <v>0.6289429068565369</v>
+        <v>0.3281699419021606</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>0.1598258620689655</v>
       </c>
       <c r="B380" t="n">
-        <v>0.1680718660354614</v>
+        <v>0.3097949624061584</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>0.1630586206896552</v>
       </c>
       <c r="B381" t="n">
-        <v>0.350165456533432</v>
+        <v>0.3002031445503235</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>0.1682821839080459</v>
       </c>
       <c r="B382" t="n">
-        <v>0.5494714379310608</v>
+        <v>0.1819414049386978</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>0.1747310344827586</v>
       </c>
       <c r="B383" t="n">
-        <v>0.1331594884395599</v>
+        <v>0.1763878464698792</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>0.182248275862069</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1869275867938995</v>
+        <v>0.21834896504879</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>0.1903114942528736</v>
       </c>
       <c r="B385" t="n">
-        <v>0.4616178274154663</v>
+        <v>0.3182538151741028</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>0.1968045977011494</v>
       </c>
       <c r="B386" t="n">
-        <v>0.1616324931383133</v>
+        <v>0.2998843491077423</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>0.2036793103448276</v>
       </c>
       <c r="B387" t="n">
-        <v>0.3934970796108246</v>
+        <v>0.3407562375068665</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>0.2093494252873563</v>
       </c>
       <c r="B388" t="n">
-        <v>0.1653073877096176</v>
+        <v>0.2191786617040634</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>0.2144367816091954</v>
       </c>
       <c r="B389" t="n">
-        <v>0.2016134560108185</v>
+        <v>0.2859077751636505</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>0.2181413793103449</v>
       </c>
       <c r="B390" t="n">
-        <v>0.1906377226114273</v>
+        <v>0.223559632897377</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>0.220767816091954</v>
       </c>
       <c r="B391" t="n">
-        <v>0.169796958565712</v>
+        <v>0.171142578125</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>0.2226040229885057</v>
       </c>
       <c r="B392" t="n">
-        <v>0.1156332865357399</v>
+        <v>0.1653328686952591</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>0.2237396551724138</v>
       </c>
       <c r="B393" t="n">
-        <v>0.238303005695343</v>
+        <v>0.1857348680496216</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>0.2250551724137931</v>
       </c>
       <c r="B394" t="n">
-        <v>0.2150911539793015</v>
+        <v>0.2764382362365723</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>0.2272672413793103</v>
       </c>
       <c r="B395" t="n">
-        <v>0.09236804395914078</v>
+        <v>0.2762143015861511</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>0.2285925287356322</v>
       </c>
       <c r="B396" t="n">
-        <v>0.1258027255535126</v>
+        <v>0.3151898980140686</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>0.229251724137931</v>
       </c>
       <c r="B397" t="n">
-        <v>0.1346817165613174</v>
+        <v>0.2383754849433899</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>0.230382183908046</v>
       </c>
       <c r="B398" t="n">
-        <v>0.1419149190187454</v>
+        <v>0.2656698822975159</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>0.2325626436781609</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5110452175140381</v>
+        <v>0.3702376484870911</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>0.2350775862068966</v>
       </c>
       <c r="B400" t="n">
-        <v>0.1076578423380852</v>
+        <v>0.2480215281248093</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>0.2384057471264368</v>
       </c>
       <c r="B401" t="n">
-        <v>0.1693017482757568</v>
+        <v>0.2415978908538818</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>0.2395908045977012</v>
       </c>
       <c r="B402" t="n">
-        <v>0.4952077269554138</v>
+        <v>0.2489883899688721</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>0.2403591954022989</v>
       </c>
       <c r="B403" t="n">
-        <v>0.09025231748819351</v>
+        <v>0.3205605149269104</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>0.2398787356321839</v>
       </c>
       <c r="B404" t="n">
-        <v>0.159892275929451</v>
+        <v>0.3085985779762268</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>0.2389798850574713</v>
       </c>
       <c r="B405" t="n">
-        <v>0.1744287461042404</v>
+        <v>0.3416778445243835</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>0.2362448275862069</v>
       </c>
       <c r="B406" t="n">
-        <v>0.2845230400562286</v>
+        <v>0.279671311378479</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>0.232551724137931</v>
       </c>
       <c r="B407" t="n">
-        <v>0.1213220953941345</v>
+        <v>0.299290657043457</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3645,7 +3645,7 @@
         <v>0.2278689655172414</v>
       </c>
       <c r="B408" t="n">
-        <v>0.4181425273418427</v>
+        <v>0.3098254203796387</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3653,7 +3653,7 @@
         <v>0.2225413793103449</v>
       </c>
       <c r="B409" t="n">
-        <v>0.3847988545894623</v>
+        <v>0.4310482144355774</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>0.2160850574712644</v>
       </c>
       <c r="B410" t="n">
-        <v>0.2042540013790131</v>
+        <v>0.4001644253730774</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3669,7 +3669,7 @@
         <v>0.2093103448275863</v>
       </c>
       <c r="B411" t="n">
-        <v>0.06139640137553215</v>
+        <v>0.3497752547264099</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>0.2025206896551724</v>
       </c>
       <c r="B412" t="n">
-        <v>0.137636125087738</v>
+        <v>0.3331647515296936</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>0.1961551724137931</v>
       </c>
       <c r="B413" t="n">
-        <v>0.4488838613033295</v>
+        <v>0.4578930139541626</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>0.1897609195402299</v>
       </c>
       <c r="B414" t="n">
-        <v>0.355414092540741</v>
+        <v>0.2485943883657455</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>0.1840390804597701</v>
       </c>
       <c r="B415" t="n">
-        <v>0.09976450353860855</v>
+        <v>0.3448337912559509</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>0.1781821839080459</v>
       </c>
       <c r="B416" t="n">
-        <v>0.1453384310007095</v>
+        <v>0.3398942351341248</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>0.1728867816091954</v>
       </c>
       <c r="B417" t="n">
-        <v>0.1726792007684708</v>
+        <v>0.4086794257164001</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>0.1687275862068965</v>
       </c>
       <c r="B418" t="n">
-        <v>0.1793065667152405</v>
+        <v>0.3340663909912109</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3733,7 +3733,7 @@
         <v>0.1650149425287356</v>
       </c>
       <c r="B419" t="n">
-        <v>0.1737237125635147</v>
+        <v>0.3001425862312317</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>0.1623316091954023</v>
       </c>
       <c r="B420" t="n">
-        <v>0.4879529178142548</v>
+        <v>0.4300149083137512</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>0.159035632183908</v>
       </c>
       <c r="B421" t="n">
-        <v>0.1834175884723663</v>
+        <v>0.3725088238716125</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3757,7 +3757,7 @@
         <v>0.1553919540229885</v>
       </c>
       <c r="B422" t="n">
-        <v>0.1557172983884811</v>
+        <v>0.3792020082473755</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>0.1512959770114942</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1795746684074402</v>
+        <v>0.3918323516845703</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>0.1463022988505747</v>
       </c>
       <c r="B424" t="n">
-        <v>0.140524759888649</v>
+        <v>0.3193888664245605</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>0.1410206896551724</v>
       </c>
       <c r="B425" t="n">
-        <v>0.2470081299543381</v>
+        <v>0.2940191626548767</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3789,7 +3789,7 @@
         <v>0.1366706896551724</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1285883188247681</v>
+        <v>0.2648060917854309</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>0.1327206896551724</v>
       </c>
       <c r="B427" t="n">
-        <v>0.06849590688943863</v>
+        <v>0.1588908433914185</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3805,7 +3805,7 @@
         <v>0.1280620689655172</v>
       </c>
       <c r="B428" t="n">
-        <v>0.1801757216453552</v>
+        <v>0.2986834347248077</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>0.1239925287356322</v>
       </c>
       <c r="B429" t="n">
-        <v>0.5049863457679749</v>
+        <v>0.3725606799125671</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3821,7 +3821,7 @@
         <v>0.120148275862069</v>
       </c>
       <c r="B430" t="n">
-        <v>0.3135698735713959</v>
+        <v>0.2536994218826294</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>0.1178247126436782</v>
       </c>
       <c r="B431" t="n">
-        <v>0.1419864892959595</v>
+        <v>0.3101026117801666</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3837,7 +3837,7 @@
         <v>0.1156718390804598</v>
       </c>
       <c r="B432" t="n">
-        <v>0.128044068813324</v>
+        <v>0.2825204133987427</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3845,7 +3845,7 @@
         <v>0.1151</v>
       </c>
       <c r="B433" t="n">
-        <v>0.1429301053285599</v>
+        <v>0.4542856216430664</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3853,7 +3853,7 @@
         <v>0.1143201149425287</v>
       </c>
       <c r="B434" t="n">
-        <v>0.1049417704343796</v>
+        <v>0.3346400260925293</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3861,7 +3861,7 @@
         <v>0.1128833333333333</v>
       </c>
       <c r="B435" t="n">
-        <v>0.1582085490226746</v>
+        <v>0.2585872411727905</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>0.1116804597701149</v>
       </c>
       <c r="B436" t="n">
-        <v>0.1702614724636078</v>
+        <v>0.1752097308635712</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>0.1110758620689655</v>
       </c>
       <c r="B437" t="n">
-        <v>0.1019781231880188</v>
+        <v>0.3384779095649719</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3885,7 +3885,7 @@
         <v>0.111932183908046</v>
       </c>
       <c r="B438" t="n">
-        <v>0.2023229598999023</v>
+        <v>0.3869158625602722</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3893,7 +3893,7 @@
         <v>0.1143465517241379</v>
       </c>
       <c r="B439" t="n">
-        <v>0.1154851913452148</v>
+        <v>0.4497378468513489</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3901,7 +3901,7 @@
         <v>0.1172068965517241</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3409242033958435</v>
+        <v>0.4115095138549805</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>0.119169540229885</v>
       </c>
       <c r="B441" t="n">
-        <v>0.2686351537704468</v>
+        <v>0.3497706055641174</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3917,7 +3917,7 @@
         <v>0.1204689655172414</v>
       </c>
       <c r="B442" t="n">
-        <v>0.1696598380804062</v>
+        <v>0.1934946030378342</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3925,7 +3925,7 @@
         <v>0.1221724137931034</v>
       </c>
       <c r="B443" t="n">
-        <v>0.1725416481494904</v>
+        <v>0.2900426387786865</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>0.1236752873563218</v>
       </c>
       <c r="B444" t="n">
-        <v>0.535102367401123</v>
+        <v>0.2918778657913208</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>0.1255350574712644</v>
       </c>
       <c r="B445" t="n">
-        <v>0.1270752251148224</v>
+        <v>0.2731503844261169</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3949,7 +3949,7 @@
         <v>0.1258</v>
       </c>
       <c r="B446" t="n">
-        <v>0.1627348810434341</v>
+        <v>0.2836354374885559</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3957,7 +3957,7 @@
         <v>0.1246919540229885</v>
       </c>
       <c r="B447" t="n">
-        <v>0.1411702781915665</v>
+        <v>0.2199638038873672</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3965,7 +3965,7 @@
         <v>0.1235965517241379</v>
       </c>
       <c r="B448" t="n">
-        <v>0.3204118311405182</v>
+        <v>0.2044149935245514</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3973,7 +3973,7 @@
         <v>0.122667816091954</v>
       </c>
       <c r="B449" t="n">
-        <v>0.1318323761224747</v>
+        <v>0.3333240151405334</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3981,7 +3981,7 @@
         <v>0.1231304597701149</v>
       </c>
       <c r="B450" t="n">
-        <v>0.1437079310417175</v>
+        <v>0.3746194243431091</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>0.1250764367816092</v>
       </c>
       <c r="B451" t="n">
-        <v>0.08406595885753632</v>
+        <v>0.2796021997928619</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>0.1278775862068965</v>
       </c>
       <c r="B452" t="n">
-        <v>0.1948530226945877</v>
+        <v>0.2691653370857239</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4005,7 +4005,7 @@
         <v>0.1303752873563218</v>
       </c>
       <c r="B453" t="n">
-        <v>0.4901400208473206</v>
+        <v>0.1678067296743393</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>0.1333287356321839</v>
       </c>
       <c r="B454" t="n">
-        <v>0.2420735508203506</v>
+        <v>0.0369734987616539</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4021,7 +4021,7 @@
         <v>0.136151724137931</v>
       </c>
       <c r="B455" t="n">
-        <v>0.1447967141866684</v>
+        <v>0.1642662584781647</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4029,7 +4029,7 @@
         <v>0.1382252873563218</v>
       </c>
       <c r="B456" t="n">
-        <v>0.1427180022001266</v>
+        <v>0.2116131782531738</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4037,7 +4037,7 @@
         <v>0.1392488505747126</v>
       </c>
       <c r="B457" t="n">
-        <v>0.418181449174881</v>
+        <v>0.2511633634567261</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4045,7 +4045,7 @@
         <v>0.1388597701149425</v>
       </c>
       <c r="B458" t="n">
-        <v>0.2213019281625748</v>
+        <v>0.3640152215957642</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4053,7 +4053,7 @@
         <v>0.1364913793103448</v>
       </c>
       <c r="B459" t="n">
-        <v>0.1056400984525681</v>
+        <v>0.3134023547172546</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4061,7 +4061,7 @@
         <v>0.1340120689655172</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1457213014364243</v>
+        <v>0.2155672162771225</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4069,7 +4069,7 @@
         <v>0.1310471264367816</v>
       </c>
       <c r="B461" t="n">
-        <v>0.2063225358724594</v>
+        <v>0.3882424831390381</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4077,7 +4077,7 @@
         <v>0.1274287356321839</v>
       </c>
       <c r="B462" t="n">
-        <v>0.1289186775684357</v>
+        <v>0.3556030988693237</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4085,7 +4085,7 @@
         <v>0.1240706896551724</v>
       </c>
       <c r="B463" t="n">
-        <v>0.2234441488981247</v>
+        <v>0.3508447408676147</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4093,7 +4093,7 @@
         <v>0.1222637931034482</v>
       </c>
       <c r="B464" t="n">
-        <v>0.507009744644165</v>
+        <v>0.4364198446273804</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4101,7 +4101,7 @@
         <v>0.1218666666666666</v>
       </c>
       <c r="B465" t="n">
-        <v>0.3403640985488892</v>
+        <v>0.5362629890441895</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4109,7 +4109,7 @@
         <v>0.1206787356321839</v>
       </c>
       <c r="B466" t="n">
-        <v>0.1613907217979431</v>
+        <v>0.4319824576377869</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4117,7 +4117,7 @@
         <v>0.1191551724137931</v>
       </c>
       <c r="B467" t="n">
-        <v>0.2324943393468857</v>
+        <v>0.3849368691444397</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4125,7 +4125,7 @@
         <v>0.1164620689655172</v>
       </c>
       <c r="B468" t="n">
-        <v>0.398204118013382</v>
+        <v>0.5148734450340271</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4133,7 +4133,7 @@
         <v>0.1151195402298851</v>
       </c>
       <c r="B469" t="n">
-        <v>0.1111796423792839</v>
+        <v>0.4382419586181641</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4141,7 +4141,7 @@
         <v>0.1152316091954023</v>
       </c>
       <c r="B470" t="n">
-        <v>0.3467896282672882</v>
+        <v>0.4862177968025208</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4149,7 +4149,7 @@
         <v>0.1160011494252873</v>
       </c>
       <c r="B471" t="n">
-        <v>0.1043424233794212</v>
+        <v>0.420811653137207</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4157,7 +4157,7 @@
         <v>0.11645</v>
       </c>
       <c r="B472" t="n">
-        <v>0.08399277925491333</v>
+        <v>0.3207660913467407</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4165,7 +4165,7 @@
         <v>0.1167597701149425</v>
       </c>
       <c r="B473" t="n">
-        <v>0.2056516259908676</v>
+        <v>0.3585193157196045</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4173,7 +4173,7 @@
         <v>0.1164597701149425</v>
       </c>
       <c r="B474" t="n">
-        <v>0.1384774893522263</v>
+        <v>0.4226462841033936</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4181,7 +4181,7 @@
         <v>0.118648275862069</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1736033856868744</v>
+        <v>0.4758096933364868</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4189,7 +4189,7 @@
         <v>0.121417816091954</v>
       </c>
       <c r="B476" t="n">
-        <v>0.1127485632896423</v>
+        <v>0.2227611392736435</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4197,7 +4197,7 @@
         <v>0.1217597701149425</v>
       </c>
       <c r="B477" t="n">
-        <v>0.1559614092111588</v>
+        <v>0.3068124055862427</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4205,7 +4205,7 @@
         <v>0.1208666666666667</v>
       </c>
       <c r="B478" t="n">
-        <v>0.4694654941558838</v>
+        <v>0.2327340096235275</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4213,7 +4213,7 @@
         <v>0.1188436781609195</v>
       </c>
       <c r="B479" t="n">
-        <v>0.2037850916385651</v>
+        <v>0.2316893488168716</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4221,7 +4221,7 @@
         <v>0.1154695402298851</v>
       </c>
       <c r="B480" t="n">
-        <v>0.1417618095874786</v>
+        <v>0.2407772839069366</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4229,7 +4229,7 @@
         <v>0.1119293103448276</v>
       </c>
       <c r="B481" t="n">
-        <v>0.1888527125120163</v>
+        <v>0.3590524792671204</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4237,7 +4237,7 @@
         <v>0.1084850574712644</v>
       </c>
       <c r="B482" t="n">
-        <v>0.4359044432640076</v>
+        <v>0.3227369785308838</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4245,7 +4245,7 @@
         <v>0.1051977011494253</v>
       </c>
       <c r="B483" t="n">
-        <v>0.1485898196697235</v>
+        <v>0.2468766272068024</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4253,7 +4253,7 @@
         <v>0.1014189655172414</v>
       </c>
       <c r="B484" t="n">
-        <v>0.1404672116041183</v>
+        <v>0.4154884815216064</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4261,7 +4261,7 @@
         <v>0.09789540229885058</v>
       </c>
       <c r="B485" t="n">
-        <v>0.5111398696899414</v>
+        <v>0.3053508400917053</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4269,7 +4269,7 @@
         <v>0.09464137931034484</v>
       </c>
       <c r="B486" t="n">
-        <v>0.1701923757791519</v>
+        <v>0.2847151160240173</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4277,7 +4277,7 @@
         <v>0.09264885057471267</v>
       </c>
       <c r="B487" t="n">
-        <v>0.4844184219837189</v>
+        <v>0.3881556987762451</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4285,7 +4285,7 @@
         <v>0.09204080459770117</v>
       </c>
       <c r="B488" t="n">
-        <v>0.1719884872436523</v>
+        <v>0.3101807832717896</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4293,7 +4293,7 @@
         <v>0.09167701149425289</v>
       </c>
       <c r="B489" t="n">
-        <v>0.1587161421775818</v>
+        <v>0.3560861945152283</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4301,7 +4301,7 @@
         <v>0.09137471264367816</v>
       </c>
       <c r="B490" t="n">
-        <v>0.1965733915567398</v>
+        <v>0.4558715224266052</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4309,7 +4309,7 @@
         <v>0.09113563218390806</v>
       </c>
       <c r="B491" t="n">
-        <v>0.0849103108048439</v>
+        <v>0.4087845683097839</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4317,7 +4317,7 @@
         <v>0.09147816091954025</v>
       </c>
       <c r="B492" t="n">
-        <v>0.1866607367992401</v>
+        <v>0.3833940029144287</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4325,7 +4325,7 @@
         <v>0.09241896551724138</v>
       </c>
       <c r="B493" t="n">
-        <v>0.1911934316158295</v>
+        <v>0.3244633674621582</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4333,7 +4333,7 @@
         <v>0.09243160919540232</v>
       </c>
       <c r="B494" t="n">
-        <v>0.4664483070373535</v>
+        <v>0.3355733752250671</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4341,7 +4341,7 @@
         <v>0.09288908045977014</v>
       </c>
       <c r="B495" t="n">
-        <v>0.1102979853749275</v>
+        <v>0.1664684414863586</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4349,7 +4349,7 @@
         <v>0.09312126436781611</v>
       </c>
       <c r="B496" t="n">
-        <v>0.2068146020174026</v>
+        <v>0.2182158976793289</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4357,7 +4357,7 @@
         <v>0.0941712643678161</v>
       </c>
       <c r="B497" t="n">
-        <v>0.5003032684326172</v>
+        <v>0.1438962519168854</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4365,7 +4365,7 @@
         <v>0.09350862068965517</v>
       </c>
       <c r="B498" t="n">
-        <v>0.0896633118391037</v>
+        <v>0.1941750794649124</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4373,7 +4373,7 @@
         <v>0.09208045977011493</v>
       </c>
       <c r="B499" t="n">
-        <v>0.5517247915267944</v>
+        <v>0.1341505348682404</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4381,7 +4381,7 @@
         <v>0.09040114942528733</v>
       </c>
       <c r="B500" t="n">
-        <v>0.125294029712677</v>
+        <v>0.231763631105423</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4389,7 +4389,7 @@
         <v>0.08926839080459768</v>
       </c>
       <c r="B501" t="n">
-        <v>0.1351668387651443</v>
+        <v>0.1649067550897598</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4397,7 +4397,7 @@
         <v>0.08834885057471263</v>
       </c>
       <c r="B502" t="n">
-        <v>0.1919410675764084</v>
+        <v>0.2554793357849121</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4405,7 +4405,7 @@
         <v>0.08773793103448274</v>
       </c>
       <c r="B503" t="n">
-        <v>0.1920664757490158</v>
+        <v>0.1985383629798889</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4413,7 +4413,7 @@
         <v>0.08653333333333332</v>
       </c>
       <c r="B504" t="n">
-        <v>0.1119700372219086</v>
+        <v>0.2612549662590027</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4421,7 +4421,7 @@
         <v>0.08448275862068964</v>
       </c>
       <c r="B505" t="n">
-        <v>0.1150037497282028</v>
+        <v>0.39766925573349</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4429,7 +4429,7 @@
         <v>0.08465172413793103</v>
       </c>
       <c r="B506" t="n">
-        <v>0.169275239109993</v>
+        <v>0.3426094055175781</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4437,7 +4437,7 @@
         <v>0.08466494252873563</v>
       </c>
       <c r="B507" t="n">
-        <v>0.1039645969867706</v>
+        <v>0.2337232381105423</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4445,7 +4445,7 @@
         <v>0.08441666666666667</v>
       </c>
       <c r="B508" t="n">
-        <v>0.2082129716873169</v>
+        <v>0.2890391647815704</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4453,7 +4453,7 @@
         <v>0.08511609195402299</v>
       </c>
       <c r="B509" t="n">
-        <v>0.1949110627174377</v>
+        <v>0.3643883466720581</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4461,7 +4461,7 @@
         <v>0.08733965517241378</v>
       </c>
       <c r="B510" t="n">
-        <v>0.6742403507232666</v>
+        <v>0.2138034999370575</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4469,7 +4469,7 @@
         <v>0.09084597701149423</v>
       </c>
       <c r="B511" t="n">
-        <v>0.3138310313224792</v>
+        <v>0.1796316057443619</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4477,7 +4477,7 @@
         <v>0.09410747126436782</v>
       </c>
       <c r="B512" t="n">
-        <v>0.1548904627561569</v>
+        <v>0.3283548951148987</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4485,7 +4485,7 @@
         <v>0.09808448275862069</v>
       </c>
       <c r="B513" t="n">
-        <v>0.1377282440662384</v>
+        <v>0.260759174823761</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4493,7 +4493,7 @@
         <v>0.1025718390804598</v>
       </c>
       <c r="B514" t="n">
-        <v>0.1561544686555862</v>
+        <v>0.2452525943517685</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4501,7 +4501,7 @@
         <v>0.1073591954022989</v>
       </c>
       <c r="B515" t="n">
-        <v>0.2291135042905807</v>
+        <v>0.2086102068424225</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4509,7 +4509,7 @@
         <v>0.1121252873563218</v>
       </c>
       <c r="B516" t="n">
-        <v>0.4851026833057404</v>
+        <v>0.2101252973079681</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4517,7 +4517,7 @@
         <v>0.1162247126436782</v>
       </c>
       <c r="B517" t="n">
-        <v>0.2388144880533218</v>
+        <v>0.1537019908428192</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4525,7 +4525,7 @@
         <v>0.1194890804597701</v>
       </c>
       <c r="B518" t="n">
-        <v>0.1746052205562592</v>
+        <v>0.2470056712627411</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4533,7 +4533,7 @@
         <v>0.1236442528735632</v>
       </c>
       <c r="B519" t="n">
-        <v>0.0928456038236618</v>
+        <v>0.2158882766962051</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4541,7 +4541,7 @@
         <v>0.1283873563218391</v>
       </c>
       <c r="B520" t="n">
-        <v>0.001898903050459921</v>
+        <v>0.3503048419952393</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4549,7 +4549,7 @@
         <v>0.1332080459770115</v>
       </c>
       <c r="B521" t="n">
-        <v>0.4665511250495911</v>
+        <v>0.2725169658660889</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4557,7 +4557,7 @@
         <v>0.1374149425287356</v>
       </c>
       <c r="B522" t="n">
-        <v>0.4512410461902618</v>
+        <v>0.3269301652908325</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4565,7 +4565,7 @@
         <v>0.1416764367816092</v>
       </c>
       <c r="B523" t="n">
-        <v>0.2548329830169678</v>
+        <v>0.2168342769145966</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4573,7 +4573,7 @@
         <v>0.1460522988505747</v>
       </c>
       <c r="B524" t="n">
-        <v>0.1658536940813065</v>
+        <v>0.2649913132190704</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4581,7 +4581,7 @@
         <v>0.1496586206896552</v>
       </c>
       <c r="B525" t="n">
-        <v>0.2042272686958313</v>
+        <v>0.2791867852210999</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>0.1505752873563219</v>
       </c>
       <c r="B526" t="n">
-        <v>0.2066000699996948</v>
+        <v>0.1678309291601181</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>0.150930459770115</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1293471306562424</v>
+        <v>0.2055538147687912</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>0.1515270114942529</v>
       </c>
       <c r="B528" t="n">
-        <v>0.1955036818981171</v>
+        <v>0.2528203129768372</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4613,7 +4613,7 @@
         <v>0.1513706896551724</v>
       </c>
       <c r="B529" t="n">
-        <v>0.171211838722229</v>
+        <v>0.2464966624975204</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>0.1505649425287356</v>
       </c>
       <c r="B530" t="n">
-        <v>0.4428067803382874</v>
+        <v>0.2555428743362427</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>0.1495856321839081</v>
       </c>
       <c r="B531" t="n">
-        <v>0.1536751091480255</v>
+        <v>0.2771280407905579</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>0.1481120689655172</v>
       </c>
       <c r="B532" t="n">
-        <v>0.01875247806310654</v>
+        <v>0.2948568165302277</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>0.1464614942528736</v>
       </c>
       <c r="B533" t="n">
-        <v>0.08241866528987885</v>
+        <v>0.2675259411334991</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>0.1457028735632184</v>
       </c>
       <c r="B534" t="n">
-        <v>0.05353453755378723</v>
+        <v>0.2899779081344604</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>0.1455528735632184</v>
       </c>
       <c r="B535" t="n">
-        <v>0.1885168701410294</v>
+        <v>0.3606775104999542</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>0.1453706896551724</v>
       </c>
       <c r="B536" t="n">
-        <v>0.286647766828537</v>
+        <v>0.272905170917511</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>0.1467068965517241</v>
       </c>
       <c r="B537" t="n">
-        <v>0.2823654413223267</v>
+        <v>0.2057527005672455</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>0.1473086206896552</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.001472626347094774</v>
+        <v>0.2513955235481262</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>0.1467936781609195</v>
       </c>
       <c r="B539" t="n">
-        <v>0.001386499498039484</v>
+        <v>0.236105665564537</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>0.1454109195402299</v>
       </c>
       <c r="B540" t="n">
-        <v>0.1991432905197144</v>
+        <v>0.2819369435310364</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>0.1438936781609195</v>
       </c>
       <c r="B541" t="n">
-        <v>0.379518985748291</v>
+        <v>0.3896804749965668</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>0.1422097701149425</v>
       </c>
       <c r="B542" t="n">
-        <v>0.1224973127245903</v>
+        <v>0.231674000620842</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>0.1392735632183908</v>
       </c>
       <c r="B543" t="n">
-        <v>0.2771173119544983</v>
+        <v>0.2773175835609436</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>0.1357126436781609</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.03384881839156151</v>
+        <v>0.2841718196868896</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>0.1325666666666667</v>
       </c>
       <c r="B545" t="n">
-        <v>0.05218115821480751</v>
+        <v>0.328513503074646</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>0.1298959770114943</v>
       </c>
       <c r="B546" t="n">
-        <v>0.3736671805381775</v>
+        <v>0.2740383744239807</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>0.1270028735632184</v>
       </c>
       <c r="B547" t="n">
-        <v>0.002003634348511696</v>
+        <v>0.3401779532432556</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>0.1235827586206897</v>
       </c>
       <c r="B548" t="n">
-        <v>0.28385990858078</v>
+        <v>0.2461266070604324</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>0.1203620689655172</v>
       </c>
       <c r="B549" t="n">
-        <v>0.2333605140447617</v>
+        <v>0.2322818636894226</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>0.1166224137931035</v>
       </c>
       <c r="B550" t="n">
-        <v>0.08820491284132004</v>
+        <v>0.2231510281562805</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>0.1135413793103448</v>
       </c>
       <c r="B551" t="n">
-        <v>0.3712594509124756</v>
+        <v>0.2235682904720306</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>0.1103954022988506</v>
       </c>
       <c r="B552" t="n">
-        <v>0.2708052694797516</v>
+        <v>0.202535480260849</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>0.1107298850574713</v>
       </c>
       <c r="B553" t="n">
-        <v>0.0899454727768898</v>
+        <v>0.1487339437007904</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>0.1133379310344827</v>
       </c>
       <c r="B554" t="n">
-        <v>0.08640504628419876</v>
+        <v>0.2378837317228317</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>0.1185448275862069</v>
       </c>
       <c r="B555" t="n">
-        <v>0.2284694612026215</v>
+        <v>0.1396043300628662</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>0.1241022988505747</v>
       </c>
       <c r="B556" t="n">
-        <v>0.2361724674701691</v>
+        <v>0.1919077634811401</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>0.1289557471264368</v>
       </c>
       <c r="B557" t="n">
-        <v>0.1705534905195236</v>
+        <v>0.1849278807640076</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>0.1344224137931034</v>
       </c>
       <c r="B558" t="n">
-        <v>0.1741285771131516</v>
+        <v>0.2662937641143799</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>0.1393902298850574</v>
       </c>
       <c r="B559" t="n">
-        <v>0.149339884519577</v>
+        <v>0.2257030755281448</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>0.1424862068965517</v>
       </c>
       <c r="B560" t="n">
-        <v>0.158363938331604</v>
+        <v>0.1640499532222748</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>0.1430385057471265</v>
       </c>
       <c r="B561" t="n">
-        <v>0.3187486827373505</v>
+        <v>0.1413637697696686</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>0.1429189655172414</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3719650208950043</v>
+        <v>0.2626427710056305</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>0.1431028735632184</v>
       </c>
       <c r="B563" t="n">
-        <v>0.2230342328548431</v>
+        <v>0.1883158385753632</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>0.1418620689655173</v>
       </c>
       <c r="B564" t="n">
-        <v>0.2510976791381836</v>
+        <v>0.3021373152732849</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>0.1416419540229885</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.05981788411736488</v>
+        <v>0.242755338549614</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>0.1410091954022989</v>
       </c>
       <c r="B566" t="n">
-        <v>0.09126677364110947</v>
+        <v>0.2497303485870361</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>0.1402212643678161</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.03138654679059982</v>
+        <v>0.2525577247142792</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>0.1399936781609196</v>
       </c>
       <c r="B568" t="n">
-        <v>0.06203170120716095</v>
+        <v>0.1922429203987122</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>0.1397459770114942</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2538997530937195</v>
+        <v>0.1832243651151657</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>0.1405137931034483</v>
       </c>
       <c r="B570" t="n">
-        <v>0.4251479804515839</v>
+        <v>0.2366465479135513</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>0.1406241379310345</v>
       </c>
       <c r="B571" t="n">
-        <v>0.05007785558700562</v>
+        <v>0.1714277267456055</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>0.1420235632183908</v>
       </c>
       <c r="B572" t="n">
-        <v>0.277502715587616</v>
+        <v>0.1449475288391113</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>0.1437270114942529</v>
       </c>
       <c r="B573" t="n">
-        <v>0.07188940048217773</v>
+        <v>0.2164259850978851</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>0.1454367816091954</v>
       </c>
       <c r="B574" t="n">
-        <v>0.1918290555477142</v>
+        <v>0.2419359236955643</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>0.1469390804597701</v>
       </c>
       <c r="B575" t="n">
-        <v>0.170394629240036</v>
+        <v>0.4316080212593079</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>0.1486011494252873</v>
       </c>
       <c r="B576" t="n">
-        <v>0.1318183988332748</v>
+        <v>0.2720038890838623</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>0.1491362068965517</v>
       </c>
       <c r="B577" t="n">
-        <v>0.1350847035646439</v>
+        <v>0.3755577802658081</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>0.1495011494252873</v>
       </c>
       <c r="B578" t="n">
-        <v>0.07645820081233978</v>
+        <v>0.3042375445365906</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>0.1496689655172413</v>
       </c>
       <c r="B579" t="n">
-        <v>0.0709935650229454</v>
+        <v>0.3492994606494904</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>0.1494431034482759</v>
       </c>
       <c r="B580" t="n">
-        <v>0.1218062862753868</v>
+        <v>0.3661794662475586</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>0.1491781609195402</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.01926077343523502</v>
+        <v>0.2751323878765106</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>0.1454597701149426</v>
       </c>
       <c r="B582" t="n">
-        <v>0.1934531629085541</v>
+        <v>0.2803980708122253</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>0.1402028735632184</v>
       </c>
       <c r="B583" t="n">
-        <v>0.04490058496594429</v>
+        <v>0.2136673629283905</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>0.135</v>
       </c>
       <c r="B584" t="n">
-        <v>0.2477453202009201</v>
+        <v>0.3357390463352203</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>0.1298919540229885</v>
       </c>
       <c r="B585" t="n">
-        <v>0.03808173537254333</v>
+        <v>0.3094926178455353</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>0.1255965517241379</v>
       </c>
       <c r="B586" t="n">
-        <v>0.3394786417484283</v>
+        <v>0.2832458019256592</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>0.1231327586206896</v>
       </c>
       <c r="B587" t="n">
-        <v>0.3902214169502258</v>
+        <v>0.2486041039228439</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>0.1212454022988505</v>
       </c>
       <c r="B588" t="n">
-        <v>0.06543291360139847</v>
+        <v>0.3542302250862122</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>0.1213574712643678</v>
       </c>
       <c r="B589" t="n">
-        <v>0.3381883800029755</v>
+        <v>0.2829076051712036</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>0.1244982758620689</v>
       </c>
       <c r="B590" t="n">
-        <v>0.3271816074848175</v>
+        <v>0.4600889980792999</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>0.1280149425287356</v>
       </c>
       <c r="B591" t="n">
-        <v>0.3991477787494659</v>
+        <v>0.2971486449241638</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>0.1308120689655172</v>
       </c>
       <c r="B592" t="n">
-        <v>0.2213832437992096</v>
+        <v>0.2813081443309784</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>0.1338936781609195</v>
       </c>
       <c r="B593" t="n">
-        <v>0.153885543346405</v>
+        <v>0.3789465427398682</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>0.1348373563218391</v>
       </c>
       <c r="B594" t="n">
-        <v>0.335727870464325</v>
+        <v>0.2469542473554611</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>0.1348005747126437</v>
       </c>
       <c r="B595" t="n">
-        <v>0.2107406407594681</v>
+        <v>0.4398740231990814</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>0.1339925287356322</v>
       </c>
       <c r="B596" t="n">
-        <v>0.1104477792978287</v>
+        <v>0.3238208889961243</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>0.1318620689655172</v>
       </c>
       <c r="B597" t="n">
-        <v>0.09204612672328949</v>
+        <v>0.2586936354637146</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>0.129516091954023</v>
       </c>
       <c r="B598" t="n">
-        <v>0.04316623136401176</v>
+        <v>0.3952010571956635</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>0.1270080459770115</v>
       </c>
       <c r="B599" t="n">
-        <v>0.08407305181026459</v>
+        <v>0.393896073102951</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>0.1254333333333333</v>
       </c>
       <c r="B600" t="n">
-        <v>0.1059963777661324</v>
+        <v>0.3775206506252289</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>0.1230844827586206</v>
       </c>
       <c r="B601" t="n">
-        <v>0.2193775177001953</v>
+        <v>0.2413748651742935</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>0.120935632183908</v>
       </c>
       <c r="B602" t="n">
-        <v>0.0467710979282856</v>
+        <v>0.3470079302787781</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>0.1178827586206896</v>
       </c>
       <c r="B603" t="n">
-        <v>0.1236874237656593</v>
+        <v>0.3316344618797302</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>0.1150482758620689</v>
       </c>
       <c r="B604" t="n">
-        <v>0.3089321553707123</v>
+        <v>0.4186117649078369</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>0.1125873563218391</v>
       </c>
       <c r="B605" t="n">
-        <v>0.01434925943613052</v>
+        <v>0.1968434005975723</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>0.1115189655172413</v>
       </c>
       <c r="B606" t="n">
-        <v>0.05258385092020035</v>
+        <v>0.2057030946016312</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>0.1102488505747126</v>
       </c>
       <c r="B607" t="n">
-        <v>0.01742084883153439</v>
+        <v>0.2584335803985596</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>0.1093149425287356</v>
       </c>
       <c r="B608" t="n">
-        <v>0.320137232542038</v>
+        <v>0.3133852481842041</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5253,7 +5253,7 @@
         <v>0.108917816091954</v>
       </c>
       <c r="B609" t="n">
-        <v>0.07122892141342163</v>
+        <v>0.2437106668949127</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5261,7 +5261,7 @@
         <v>0.109067816091954</v>
       </c>
       <c r="B610" t="n">
-        <v>0.1371462345123291</v>
+        <v>0.308422178030014</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>0.1092770114942528</v>
       </c>
       <c r="B611" t="n">
-        <v>0.1396657973527908</v>
+        <v>0.3198186159133911</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>0.1095425287356322</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.0005182957393117249</v>
+        <v>0.3614099621772766</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>0.1097448275862069</v>
       </c>
       <c r="B613" t="n">
-        <v>0.06934640556573868</v>
+        <v>0.2752475738525391</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>0.10965</v>
       </c>
       <c r="B614" t="n">
-        <v>0.1903427392244339</v>
+        <v>0.2685942649841309</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>0.1100471264367816</v>
       </c>
       <c r="B615" t="n">
-        <v>0.05072495341300964</v>
+        <v>0.372929722070694</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>0.1080310344827586</v>
       </c>
       <c r="B616" t="n">
-        <v>0.111249640583992</v>
+        <v>0.4099970459938049</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>0.1064568965517241</v>
       </c>
       <c r="B617" t="n">
-        <v>0.2968556880950928</v>
+        <v>0.2884268164634705</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>0.1054557471264368</v>
       </c>
       <c r="B618" t="n">
-        <v>0.297196090221405</v>
+        <v>0.2678990960121155</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>0.1060545977011494</v>
       </c>
       <c r="B619" t="n">
-        <v>0.1692250370979309</v>
+        <v>0.2682282030582428</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>0.1076143678160919</v>
       </c>
       <c r="B620" t="n">
-        <v>0.1010052785277367</v>
+        <v>0.2781122922897339</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>0.1085781609195402</v>
       </c>
       <c r="B621" t="n">
-        <v>0.02202009223401546</v>
+        <v>0.177337646484375</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>0.1093666666666667</v>
       </c>
       <c r="B622" t="n">
-        <v>0.4258418381214142</v>
+        <v>0.3060576319694519</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>0.111364367816092</v>
       </c>
       <c r="B623" t="n">
-        <v>0.009663266129791737</v>
+        <v>0.1960377097129822</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>0.1141833333333333</v>
       </c>
       <c r="B624" t="n">
-        <v>0.4655031263828278</v>
+        <v>0.3051876127719879</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>0.1184672413793103</v>
       </c>
       <c r="B625" t="n">
-        <v>0.003993208985775709</v>
+        <v>0.364615261554718</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>0.1229086206896552</v>
       </c>
       <c r="B626" t="n">
-        <v>0.2099922001361847</v>
+        <v>0.2534938454627991</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>0.1257298850574713</v>
       </c>
       <c r="B627" t="n">
-        <v>0.03022796288132668</v>
+        <v>0.1259772628545761</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>0.1276218390804598</v>
       </c>
       <c r="B628" t="n">
-        <v>0.09993354976177216</v>
+        <v>0.2792710661888123</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>0.1294683908045977</v>
       </c>
       <c r="B629" t="n">
-        <v>0.3698758482933044</v>
+        <v>0.1930034160614014</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>0.1314632183908046</v>
       </c>
       <c r="B630" t="n">
-        <v>0.3011627793312073</v>
+        <v>0.09511724859476089</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>0.1331816091954023</v>
       </c>
       <c r="B631" t="n">
-        <v>0.05634225904941559</v>
+        <v>0.2234269827604294</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>0.1371672413793103</v>
       </c>
       <c r="B632" t="n">
-        <v>0.2000595927238464</v>
+        <v>0.1622100621461868</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>0.1418442528735632</v>
       </c>
       <c r="B633" t="n">
-        <v>0.2799180150032043</v>
+        <v>0.3094528913497925</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>0.1456172413793103</v>
       </c>
       <c r="B634" t="n">
-        <v>0.3563317954540253</v>
+        <v>0.2008589506149292</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>0.1490373563218391</v>
       </c>
       <c r="B635" t="n">
-        <v>0.4766598045825958</v>
+        <v>0.2254526019096375</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>0.1524913793103448</v>
       </c>
       <c r="B636" t="n">
-        <v>0.07621876895427704</v>
+        <v>0.1806440055370331</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>0.1562022988505747</v>
       </c>
       <c r="B637" t="n">
-        <v>0.06128249689936638</v>
+        <v>0.1548404693603516</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>0.1594045977011494</v>
       </c>
       <c r="B638" t="n">
-        <v>0.4285444915294647</v>
+        <v>0.27632075548172</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>0.161283908045977</v>
       </c>
       <c r="B639" t="n">
-        <v>0.4047505259513855</v>
+        <v>0.3303062915802002</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>0.1610798850574713</v>
       </c>
       <c r="B640" t="n">
-        <v>0.1150174140930176</v>
+        <v>0.2380919456481934</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>0.1602120689655172</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.08997335284948349</v>
+        <v>0.2944631278514862</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>0.1588982758620689</v>
       </c>
       <c r="B642" t="n">
-        <v>0.2834536135196686</v>
+        <v>0.4429619610309601</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>0.1575367816091954</v>
       </c>
       <c r="B643" t="n">
-        <v>0.07213437557220459</v>
+        <v>0.4210944175720215</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5533,7 +5533,7 @@
         <v>0.1552758620689655</v>
       </c>
       <c r="B644" t="n">
-        <v>0.4044128656387329</v>
+        <v>0.3632879853248596</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5541,7 +5541,7 @@
         <v>0.1532063218390804</v>
       </c>
       <c r="B645" t="n">
-        <v>0.1516478210687637</v>
+        <v>0.4513963162899017</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>0.1509459770114942</v>
       </c>
       <c r="B646" t="n">
-        <v>0.2416827976703644</v>
+        <v>0.3982893228530884</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>0.147883908045977</v>
       </c>
       <c r="B647" t="n">
-        <v>0.05811047181487083</v>
+        <v>0.4401947259902954</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>0.1438683908045977</v>
       </c>
       <c r="B648" t="n">
-        <v>0.1409780383110046</v>
+        <v>0.3328109681606293</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>0.1389310344827586</v>
       </c>
       <c r="B649" t="n">
-        <v>0.2373344749212265</v>
+        <v>0.3221603035926819</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>0.1349724137931035</v>
       </c>
       <c r="B650" t="n">
-        <v>0.2063238173723221</v>
+        <v>0.249760314822197</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>0.1314942528735632</v>
       </c>
       <c r="B651" t="n">
-        <v>0.3866351544857025</v>
+        <v>0.3266505897045135</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>0.1287126436781609</v>
       </c>
       <c r="B652" t="n">
-        <v>0.2076308131217957</v>
+        <v>0.304311603307724</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>0.1255218390804597</v>
       </c>
       <c r="B653" t="n">
-        <v>0.2667092382907867</v>
+        <v>0.3169409334659576</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>0.1215942528735632</v>
       </c>
       <c r="B654" t="n">
-        <v>0.1608114093542099</v>
+        <v>0.2624043822288513</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>0.117048275862069</v>
       </c>
       <c r="B655" t="n">
-        <v>0.2591446042060852</v>
+        <v>0.2890182733535767</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>0.113332183908046</v>
       </c>
       <c r="B656" t="n">
-        <v>0.02739191055297852</v>
+        <v>0.2363447844982147</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>0.1097879310344827</v>
       </c>
       <c r="B657" t="n">
-        <v>0.3524731993675232</v>
+        <v>0.3675070405006409</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>0.1059212643678161</v>
       </c>
       <c r="B658" t="n">
-        <v>0.2265778481960297</v>
+        <v>0.2727857828140259</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>0.1028356321839081</v>
       </c>
       <c r="B659" t="n">
-        <v>0.168044313788414</v>
+        <v>0.315611720085144</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>0.1003103448275862</v>
       </c>
       <c r="B660" t="n">
-        <v>0.05085163190960884</v>
+        <v>0.358278751373291</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>0.09657413793103449</v>
       </c>
       <c r="B661" t="n">
-        <v>0.1021107509732246</v>
+        <v>0.3355735838413239</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>0.09267758620689655</v>
       </c>
       <c r="B662" t="n">
-        <v>0.312546044588089</v>
+        <v>0.3024525046348572</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>0.09032298850574712</v>
       </c>
       <c r="B663" t="n">
-        <v>0.4515661299228668</v>
+        <v>0.2453275173902512</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>0.08884540229885056</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1537951827049255</v>
+        <v>0.2582899928092957</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>0.08764999999999998</v>
       </c>
       <c r="B665" t="n">
-        <v>0.07022764533758163</v>
+        <v>0.3547424077987671</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>0.08654367816091953</v>
       </c>
       <c r="B666" t="n">
-        <v>0.1846757978200912</v>
+        <v>0.3398666977882385</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>0.08491206896551724</v>
       </c>
       <c r="B667" t="n">
-        <v>0.5214496254920959</v>
+        <v>0.2930845022201538</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>0.08348333333333335</v>
       </c>
       <c r="B668" t="n">
-        <v>0.3277967572212219</v>
+        <v>0.3874071538448334</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>0.08386091954022991</v>
       </c>
       <c r="B669" t="n">
-        <v>0.05104858800768852</v>
+        <v>0.2947819232940674</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>0.08582241379310346</v>
       </c>
       <c r="B670" t="n">
-        <v>0.1087028309702873</v>
+        <v>0.240996241569519</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>0.0863189655172414</v>
       </c>
       <c r="B671" t="n">
-        <v>0.3320907354354858</v>
+        <v>0.3621499836444855</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>0.0867028735632184</v>
       </c>
       <c r="B672" t="n">
-        <v>0.2907533049583435</v>
+        <v>0.3538539111614227</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5765,7 +5765,7 @@
         <v>0.08708160919540231</v>
       </c>
       <c r="B673" t="n">
-        <v>0.1098794639110565</v>
+        <v>0.2464050054550171</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5773,7 +5773,7 @@
         <v>0.08768793103448277</v>
       </c>
       <c r="B674" t="n">
-        <v>0.3865751624107361</v>
+        <v>0.2499661147594452</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5781,7 +5781,7 @@
         <v>0.08867068965517241</v>
       </c>
       <c r="B675" t="n">
-        <v>0.3655283749103546</v>
+        <v>0.2344027012586594</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5789,7 +5789,7 @@
         <v>0.09119597701149426</v>
       </c>
       <c r="B676" t="n">
-        <v>0.2000220865011215</v>
+        <v>0.1070408523082733</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5797,7 +5797,7 @@
         <v>0.09399999999999999</v>
       </c>
       <c r="B677" t="n">
-        <v>0.04954025149345398</v>
+        <v>0.230629488825798</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5805,7 +5805,7 @@
         <v>0.09987643678160918</v>
       </c>
       <c r="B678" t="n">
-        <v>0.4066471755504608</v>
+        <v>0.1367377489805222</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5813,7 +5813,7 @@
         <v>0.1057574712643678</v>
       </c>
       <c r="B679" t="n">
-        <v>0.3959587812423706</v>
+        <v>0.1552546322345734</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5821,7 +5821,7 @@
         <v>0.1124919540229885</v>
       </c>
       <c r="B680" t="n">
-        <v>0.408771276473999</v>
+        <v>0.0925154834985733</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5829,7 +5829,7 @@
         <v>0.1193448275862069</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2899457514286041</v>
+        <v>0.1609148532152176</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5837,7 +5837,7 @@
         <v>0.1265</v>
       </c>
       <c r="B682" t="n">
-        <v>0.0181529838591814</v>
+        <v>0.159352034330368</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5845,7 +5845,7 @@
         <v>0.132717816091954</v>
       </c>
       <c r="B683" t="n">
-        <v>0.1986736953258514</v>
+        <v>0.3477193713188171</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5853,7 +5853,7 @@
         <v>0.1379637931034483</v>
       </c>
       <c r="B684" t="n">
-        <v>0.4835950136184692</v>
+        <v>0.2498883455991745</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5861,7 +5861,7 @@
         <v>0.1419183908045977</v>
       </c>
       <c r="B685" t="n">
-        <v>0.3308739066123962</v>
+        <v>0.2633099853992462</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5869,7 +5869,7 @@
         <v>0.1441948275862069</v>
       </c>
       <c r="B686" t="n">
-        <v>0.01986989751458168</v>
+        <v>0.27088862657547</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5877,7 +5877,7 @@
         <v>0.1466293103448276</v>
       </c>
       <c r="B687" t="n">
-        <v>0.2769213914871216</v>
+        <v>0.3122496604919434</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5885,7 +5885,7 @@
         <v>0.1480770114942528</v>
       </c>
       <c r="B688" t="n">
-        <v>0.1133280768990517</v>
+        <v>0.2410875260829926</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5893,7 +5893,7 @@
         <v>0.1501091954022988</v>
       </c>
       <c r="B689" t="n">
-        <v>0.4547921717166901</v>
+        <v>0.2622450590133667</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5901,7 +5901,7 @@
         <v>0.1512454022988506</v>
       </c>
       <c r="B690" t="n">
-        <v>0.1100463345646858</v>
+        <v>0.1784829348325729</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5909,7 +5909,7 @@
         <v>0.1524074712643678</v>
       </c>
       <c r="B691" t="n">
-        <v>0.4167938232421875</v>
+        <v>0.2720249891281128</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5917,7 +5917,7 @@
         <v>0.1533126436781609</v>
       </c>
       <c r="B692" t="n">
-        <v>0.3153161704540253</v>
+        <v>0.2834813594818115</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5925,7 +5925,7 @@
         <v>0.1536936781609196</v>
       </c>
       <c r="B693" t="n">
-        <v>0.3312247693538666</v>
+        <v>0.2459181845188141</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5933,7 +5933,7 @@
         <v>0.1528270114942529</v>
       </c>
       <c r="B694" t="n">
-        <v>0.1132985353469849</v>
+        <v>0.3556459248065948</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5941,7 +5941,7 @@
         <v>0.1518534482758621</v>
       </c>
       <c r="B695" t="n">
-        <v>0.04120944067835808</v>
+        <v>0.1560179442167282</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5949,7 +5949,7 @@
         <v>0.1512477011494253</v>
       </c>
       <c r="B696" t="n">
-        <v>0.1787980049848557</v>
+        <v>0.1160252243280411</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5957,7 +5957,7 @@
         <v>0.1512856321839081</v>
       </c>
       <c r="B697" t="n">
-        <v>0.1609135717153549</v>
+        <v>0.2477684617042542</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5965,7 +5965,7 @@
         <v>0.1523977011494253</v>
       </c>
       <c r="B698" t="n">
-        <v>0.1380868405103683</v>
+        <v>0.3050063252449036</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5973,7 +5973,7 @@
         <v>0.1527701149425287</v>
       </c>
       <c r="B699" t="n">
-        <v>0.01703847572207451</v>
+        <v>0.1411185562610626</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5981,7 +5981,7 @@
         <v>0.1538109195402299</v>
       </c>
       <c r="B700" t="n">
-        <v>0.1908524334430695</v>
+        <v>0.2148249000310898</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5989,7 +5989,7 @@
         <v>0.1555454022988506</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1002983748912811</v>
+        <v>0.3304451107978821</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5997,7 +5997,7 @@
         <v>0.157082183908046</v>
       </c>
       <c r="B702" t="n">
-        <v>0.277353435754776</v>
+        <v>0.3776420950889587</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6005,7 +6005,7 @@
         <v>0.1584936781609195</v>
       </c>
       <c r="B703" t="n">
-        <v>0.05195900052785873</v>
+        <v>0.2941106557846069</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6013,7 +6013,7 @@
         <v>0.1600402298850575</v>
       </c>
       <c r="B704" t="n">
-        <v>0.2090400904417038</v>
+        <v>0.3348203003406525</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6021,7 +6021,7 @@
         <v>0.1608137931034483</v>
       </c>
       <c r="B705" t="n">
-        <v>0.0989171490073204</v>
+        <v>0.2698296308517456</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6029,7 +6029,7 @@
         <v>0.1601626436781609</v>
       </c>
       <c r="B706" t="n">
-        <v>0.3879835903644562</v>
+        <v>0.2883455157279968</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6037,7 +6037,7 @@
         <v>0.15765</v>
       </c>
       <c r="B707" t="n">
-        <v>0.09041285514831543</v>
+        <v>0.2562750577926636</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6045,7 +6045,7 @@
         <v>0.1544367816091954</v>
       </c>
       <c r="B708" t="n">
-        <v>0.3137713670730591</v>
+        <v>0.3028056025505066</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6053,7 +6053,7 @@
         <v>0.1505701149425287</v>
       </c>
       <c r="B709" t="n">
-        <v>0.09099169075489044</v>
+        <v>0.3896172940731049</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6061,7 +6061,7 @@
         <v>0.146532183908046</v>
       </c>
       <c r="B710" t="n">
-        <v>0.3175139725208282</v>
+        <v>0.3232021927833557</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6069,7 +6069,7 @@
         <v>0.1411833333333333</v>
       </c>
       <c r="B711" t="n">
-        <v>0.6108179688453674</v>
+        <v>0.3549408316612244</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6077,7 +6077,7 @@
         <v>0.1365563218390805</v>
       </c>
       <c r="B712" t="n">
-        <v>0.3412213623523712</v>
+        <v>0.3374358415603638</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6085,7 +6085,7 @@
         <v>0.1323637931034483</v>
       </c>
       <c r="B713" t="n">
-        <v>0.05792337656021118</v>
+        <v>0.2049125730991364</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6093,7 +6093,7 @@
         <v>0.1298494252873563</v>
       </c>
       <c r="B714" t="n">
-        <v>0.1234569400548935</v>
+        <v>0.3322925865650177</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6101,7 +6101,7 @@
         <v>0.1284706896551724</v>
       </c>
       <c r="B715" t="n">
-        <v>0.3469312191009521</v>
+        <v>0.3067037761211395</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6109,7 +6109,7 @@
         <v>0.1277545977011494</v>
       </c>
       <c r="B716" t="n">
-        <v>0.2494273632764816</v>
+        <v>0.4617891311645508</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6117,7 +6117,7 @@
         <v>0.1274752873563219</v>
       </c>
       <c r="B717" t="n">
-        <v>0.1616173386573792</v>
+        <v>0.3902243971824646</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6125,7 +6125,7 @@
         <v>0.1269488505747127</v>
       </c>
       <c r="B718" t="n">
-        <v>0.122888594865799</v>
+        <v>0.1534001529216766</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6133,7 +6133,7 @@
         <v>0.1270281609195403</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2268499881029129</v>
+        <v>0.3398546576499939</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6141,7 +6141,7 @@
         <v>0.1266045977011495</v>
       </c>
       <c r="B720" t="n">
-        <v>0.1020668223500252</v>
+        <v>0.3064142167568207</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6149,7 +6149,7 @@
         <v>0.1256097701149425</v>
       </c>
       <c r="B721" t="n">
-        <v>0.2877165675163269</v>
+        <v>0.3260852098464966</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6157,7 +6157,7 @@
         <v>0.1246166666666667</v>
       </c>
       <c r="B722" t="n">
-        <v>0.1929439753293991</v>
+        <v>0.259415328502655</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6165,7 +6165,7 @@
         <v>0.1240586206896552</v>
       </c>
       <c r="B723" t="n">
-        <v>0.1252262592315674</v>
+        <v>0.2898332476615906</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6173,7 +6173,7 @@
         <v>0.1230373563218391</v>
       </c>
       <c r="B724" t="n">
-        <v>0.7437609434127808</v>
+        <v>0.2702305018901825</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>0.1221586206896552</v>
       </c>
       <c r="B725" t="n">
-        <v>0.1139166355133057</v>
+        <v>0.3086148202419281</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6189,7 +6189,7 @@
         <v>0.1211735632183908</v>
       </c>
       <c r="B726" t="n">
-        <v>0.3098843097686768</v>
+        <v>0.4414722919464111</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6197,7 +6197,7 @@
         <v>0.1191896551724138</v>
       </c>
       <c r="B727" t="n">
-        <v>0.2130328267812729</v>
+        <v>0.2939503192901611</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6205,7 +6205,7 @@
         <v>0.1179022988505747</v>
       </c>
       <c r="B728" t="n">
-        <v>0.1597347855567932</v>
+        <v>0.365866094827652</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6213,7 +6213,7 @@
         <v>0.1174931034482758</v>
       </c>
       <c r="B729" t="n">
-        <v>0.0831279382109642</v>
+        <v>0.3851596713066101</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6221,7 +6221,7 @@
         <v>0.1170775862068965</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.00696670776233077</v>
+        <v>0.404902458190918</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6229,7 +6229,7 @@
         <v>0.1177206896551724</v>
       </c>
       <c r="B731" t="n">
-        <v>0.1167401447892189</v>
+        <v>0.3623583912849426</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6237,7 +6237,7 @@
         <v>0.1188862068965517</v>
       </c>
       <c r="B732" t="n">
-        <v>0.1688174307346344</v>
+        <v>0.4391331374645233</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6245,7 +6245,7 @@
         <v>0.1197281609195402</v>
       </c>
       <c r="B733" t="n">
-        <v>0.3109689056873322</v>
+        <v>0.3951691091060638</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6253,7 +6253,7 @@
         <v>0.1195850574712643</v>
       </c>
       <c r="B734" t="n">
-        <v>0.2888250052928925</v>
+        <v>0.327095091342926</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6261,7 +6261,7 @@
         <v>0.1193471264367816</v>
       </c>
       <c r="B735" t="n">
-        <v>0.1076095178723335</v>
+        <v>0.3875273764133453</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6269,7 +6269,7 @@
         <v>0.1177258620689655</v>
       </c>
       <c r="B736" t="n">
-        <v>0.522792637348175</v>
+        <v>0.3855572044849396</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6277,7 +6277,7 @@
         <v>0.116951724137931</v>
       </c>
       <c r="B737" t="n">
-        <v>0.1969243139028549</v>
+        <v>0.4361758232116699</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6285,7 +6285,7 @@
         <v>0.1158701149425287</v>
       </c>
       <c r="B738" t="n">
-        <v>0.1761676371097565</v>
+        <v>0.3743889331817627</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6293,7 +6293,7 @@
         <v>0.1139609195402299</v>
       </c>
       <c r="B739" t="n">
-        <v>0.1321240365505219</v>
+        <v>0.4213297367095947</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6301,7 +6301,7 @@
         <v>0.1123120689655172</v>
       </c>
       <c r="B740" t="n">
-        <v>0.2289129793643951</v>
+        <v>0.2877400517463684</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6309,7 +6309,7 @@
         <v>0.1115528735632184</v>
       </c>
       <c r="B741" t="n">
-        <v>0.1746247410774231</v>
+        <v>0.255668967962265</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6317,7 +6317,7 @@
         <v>0.1124752873563219</v>
       </c>
       <c r="B742" t="n">
-        <v>0.1581322848796844</v>
+        <v>0.3989266753196716</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6325,7 +6325,7 @@
         <v>0.1139764367816092</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2632822096347809</v>
+        <v>0.2485092282295227</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6333,7 +6333,7 @@
         <v>0.1159781609195402</v>
       </c>
       <c r="B744" t="n">
-        <v>0.3100150227546692</v>
+        <v>0.3390475511550903</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6341,7 +6341,7 @@
         <v>0.1169074712643678</v>
       </c>
       <c r="B745" t="n">
-        <v>0.08129799365997314</v>
+        <v>0.2864104807376862</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6349,7 +6349,7 @@
         <v>0.1177080459770115</v>
       </c>
       <c r="B746" t="n">
-        <v>0.09682894498109818</v>
+        <v>0.3752653002738953</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6357,7 +6357,7 @@
         <v>0.1189028735632184</v>
       </c>
       <c r="B747" t="n">
-        <v>0.1652400940656662</v>
+        <v>0.3015209436416626</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6365,7 +6365,7 @@
         <v>0.1198729885057471</v>
       </c>
       <c r="B748" t="n">
-        <v>0.2178518176078796</v>
+        <v>0.4232278168201447</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6373,7 +6373,7 @@
         <v>0.1207977011494253</v>
       </c>
       <c r="B749" t="n">
-        <v>0.2853630483150482</v>
+        <v>0.4173661172389984</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6381,7 +6381,7 @@
         <v>0.1224436781609195</v>
       </c>
       <c r="B750" t="n">
-        <v>0.2464546412229538</v>
+        <v>0.2798885107040405</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6389,7 +6389,7 @@
         <v>0.1246011494252874</v>
       </c>
       <c r="B751" t="n">
-        <v>0.2137159556150436</v>
+        <v>0.4183031320571899</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6397,7 +6397,7 @@
         <v>0.1277896551724138</v>
       </c>
       <c r="B752" t="n">
-        <v>0.2339687943458557</v>
+        <v>0.2457780838012695</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6405,7 +6405,7 @@
         <v>0.1305465517241379</v>
       </c>
       <c r="B753" t="n">
-        <v>0.5353704690933228</v>
+        <v>0.4246834814548492</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6413,7 +6413,7 @@
         <v>0.1327557471264368</v>
       </c>
       <c r="B754" t="n">
-        <v>0.1414543390274048</v>
+        <v>0.3689596354961395</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6421,7 +6421,7 @@
         <v>0.1341097701149425</v>
       </c>
       <c r="B755" t="n">
-        <v>0.3408888578414917</v>
+        <v>0.3961782455444336</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6429,7 +6429,7 @@
         <v>0.1353528735632184</v>
       </c>
       <c r="B756" t="n">
-        <v>0.2398691326379776</v>
+        <v>0.4093365073204041</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6437,7 +6437,7 @@
         <v>0.1360810344827586</v>
       </c>
       <c r="B757" t="n">
-        <v>0.2226289510726929</v>
+        <v>0.3739472329616547</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6445,7 +6445,7 @@
         <v>0.135001724137931</v>
       </c>
       <c r="B758" t="n">
-        <v>0.108524315059185</v>
+        <v>0.2853268682956696</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6453,7 +6453,7 @@
         <v>0.1337275862068965</v>
       </c>
       <c r="B759" t="n">
-        <v>0.09908270090818405</v>
+        <v>0.3894407749176025</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6461,7 +6461,7 @@
         <v>0.1318471264367816</v>
       </c>
       <c r="B760" t="n">
-        <v>0.2699446380138397</v>
+        <v>0.3405224978923798</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6469,7 +6469,7 @@
         <v>0.1296264367816092</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2449713498353958</v>
+        <v>0.2909227907657623</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6477,7 +6477,7 @@
         <v>0.1272419540229885</v>
       </c>
       <c r="B762" t="n">
-        <v>0.2882511615753174</v>
+        <v>0.342803418636322</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6485,7 +6485,7 @@
         <v>0.1257425287356322</v>
       </c>
       <c r="B763" t="n">
-        <v>0.466794341802597</v>
+        <v>0.3925501704216003</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6493,7 +6493,7 @@
         <v>0.1242</v>
       </c>
       <c r="B764" t="n">
-        <v>0.2145831137895584</v>
+        <v>0.361680656671524</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6501,7 +6501,7 @@
         <v>0.1241011494252874</v>
       </c>
       <c r="B765" t="n">
-        <v>0.2723754644393921</v>
+        <v>0.4143694639205933</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6509,7 +6509,7 @@
         <v>0.1244540229885058</v>
       </c>
       <c r="B766" t="n">
-        <v>0.1352805346250534</v>
+        <v>0.3317553997039795</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6517,7 +6517,7 @@
         <v>0.1247408045977012</v>
       </c>
       <c r="B767" t="n">
-        <v>0.0632021352648735</v>
+        <v>0.3500227034091949</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6525,7 +6525,7 @@
         <v>0.1253080459770115</v>
       </c>
       <c r="B768" t="n">
-        <v>0.06117761880159378</v>
+        <v>0.3455311357975006</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6533,7 +6533,7 @@
         <v>0.1268879310344828</v>
       </c>
       <c r="B769" t="n">
-        <v>0.2167800217866898</v>
+        <v>0.4844013154506683</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6541,7 +6541,7 @@
         <v>0.1281155172413793</v>
       </c>
       <c r="B770" t="n">
-        <v>0.2353263795375824</v>
+        <v>0.3174016177654266</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6549,7 +6549,7 @@
         <v>0.1283074712643678</v>
       </c>
       <c r="B771" t="n">
-        <v>0.4426189959049225</v>
+        <v>0.2493495941162109</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6557,7 +6557,7 @@
         <v>0.1284166666666667</v>
       </c>
       <c r="B772" t="n">
-        <v>0.1080071330070496</v>
+        <v>0.3909082114696503</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6565,7 +6565,7 @@
         <v>0.1273649425287356</v>
       </c>
       <c r="B773" t="n">
-        <v>0.2073738425970078</v>
+        <v>0.3383053243160248</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6573,7 +6573,7 @@
         <v>0.1265350574712644</v>
       </c>
       <c r="B774" t="n">
-        <v>0.08507111668586731</v>
+        <v>0.4150887131690979</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6581,7 +6581,7 @@
         <v>0.1266603448275862</v>
       </c>
       <c r="B775" t="n">
-        <v>0.3412468135356903</v>
+        <v>0.4148803055286407</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6589,7 +6589,7 @@
         <v>0.1256471264367816</v>
       </c>
       <c r="B776" t="n">
-        <v>0.28098064661026</v>
+        <v>0.4277646839618683</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6597,7 +6597,7 @@
         <v>0.1239109195402299</v>
       </c>
       <c r="B777" t="n">
-        <v>0.2860513031482697</v>
+        <v>0.3118664622306824</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6605,7 +6605,7 @@
         <v>0.1228166666666667</v>
       </c>
       <c r="B778" t="n">
-        <v>0.1496421098709106</v>
+        <v>0.2797162532806396</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6613,7 +6613,7 @@
         <v>0.1219</v>
       </c>
       <c r="B779" t="n">
-        <v>0.223062738776207</v>
+        <v>0.3830414116382599</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6621,7 +6621,7 @@
         <v>0.1223068965517241</v>
       </c>
       <c r="B780" t="n">
-        <v>0.6284005045890808</v>
+        <v>0.221219927072525</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6629,7 +6629,7 @@
         <v>0.1222068965517241</v>
       </c>
       <c r="B781" t="n">
-        <v>0.3872430026531219</v>
+        <v>0.3513973355293274</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6637,7 +6637,7 @@
         <v>0.1226793103448276</v>
       </c>
       <c r="B782" t="n">
-        <v>0.09873013198375702</v>
+        <v>0.3058264851570129</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6645,7 +6645,7 @@
         <v>0.1241057471264368</v>
       </c>
       <c r="B783" t="n">
-        <v>0.6048389077186584</v>
+        <v>0.3575435876846313</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6653,7 +6653,7 @@
         <v>0.1270827586206896</v>
       </c>
       <c r="B784" t="n">
-        <v>0.09657516330480576</v>
+        <v>0.3255339562892914</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6661,7 +6661,7 @@
         <v>0.1311557471264367</v>
       </c>
       <c r="B785" t="n">
-        <v>0.1168571934103966</v>
+        <v>0.3049927055835724</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6669,7 +6669,7 @@
         <v>0.1347609195402298</v>
       </c>
       <c r="B786" t="n">
-        <v>0.1703633964061737</v>
+        <v>0.3287450075149536</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6677,7 +6677,7 @@
         <v>0.1384166666666666</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1109656393527985</v>
+        <v>0.3618377447128296</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6685,7 +6685,7 @@
         <v>0.1404218390804597</v>
       </c>
       <c r="B788" t="n">
-        <v>0.02749520167708397</v>
+        <v>0.3004840910434723</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6693,7 +6693,7 @@
         <v>0.1423741379310345</v>
       </c>
       <c r="B789" t="n">
-        <v>0.3391280770301819</v>
+        <v>0.1900593936443329</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6701,7 +6701,7 @@
         <v>0.1438873563218391</v>
       </c>
       <c r="B790" t="n">
-        <v>0.05621255561709404</v>
+        <v>0.410925954580307</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6709,7 +6709,7 @@
         <v>0.1451959770114943</v>
       </c>
       <c r="B791" t="n">
-        <v>0.2740866839885712</v>
+        <v>0.3983294367790222</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6717,7 +6717,7 @@
         <v>0.1448477011494253</v>
       </c>
       <c r="B792" t="n">
-        <v>0.5082384347915649</v>
+        <v>0.3790988922119141</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6725,7 +6725,7 @@
         <v>0.1452063218390805</v>
       </c>
       <c r="B793" t="n">
-        <v>0.249290943145752</v>
+        <v>0.3388897478580475</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6733,7 +6733,7 @@
         <v>0.144482183908046</v>
       </c>
       <c r="B794" t="n">
-        <v>0.4503389596939087</v>
+        <v>0.414682000875473</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6741,7 +6741,7 @@
         <v>0.143132183908046</v>
       </c>
       <c r="B795" t="n">
-        <v>0.1677453517913818</v>
+        <v>0.4103782474994659</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6749,7 +6749,7 @@
         <v>0.1413471264367816</v>
       </c>
       <c r="B796" t="n">
-        <v>0.2813405692577362</v>
+        <v>0.4450095593929291</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6757,7 +6757,7 @@
         <v>0.139819540229885</v>
       </c>
       <c r="B797" t="n">
-        <v>0.202957883477211</v>
+        <v>0.4412970542907715</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6765,7 +6765,7 @@
         <v>0.1373528735632184</v>
       </c>
       <c r="B798" t="n">
-        <v>0.1723793596029282</v>
+        <v>0.4456723928451538</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6773,7 +6773,7 @@
         <v>0.1344977011494253</v>
       </c>
       <c r="B799" t="n">
-        <v>0.2519392371177673</v>
+        <v>0.3223443627357483</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6781,7 +6781,7 @@
         <v>0.1315488505747126</v>
       </c>
       <c r="B800" t="n">
-        <v>0.2971438467502594</v>
+        <v>0.3417209088802338</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6789,7 +6789,7 @@
         <v>0.1285448275862069</v>
       </c>
       <c r="B801" t="n">
-        <v>0.1551535725593567</v>
+        <v>0.3816599547863007</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6797,7 +6797,7 @@
         <v>0.1271563218390805</v>
       </c>
       <c r="B802" t="n">
-        <v>0.2349010556936264</v>
+        <v>0.3136828243732452</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6805,7 +6805,7 @@
         <v>0.1259793103448276</v>
       </c>
       <c r="B803" t="n">
-        <v>0.1991239488124847</v>
+        <v>0.3442087471485138</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6813,7 +6813,7 @@
         <v>0.1246850574712643</v>
       </c>
       <c r="B804" t="n">
-        <v>0.3497142195701599</v>
+        <v>0.3307005763053894</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6821,7 +6821,7 @@
         <v>0.1251201149425287</v>
       </c>
       <c r="B805" t="n">
-        <v>0.2202646732330322</v>
+        <v>0.2092975974082947</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6829,7 +6829,7 @@
         <v>0.127217816091954</v>
       </c>
       <c r="B806" t="n">
-        <v>0.208799734711647</v>
+        <v>0.3932552635669708</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6837,7 +6837,7 @@
         <v>0.1292597701149425</v>
       </c>
       <c r="B807" t="n">
-        <v>0.1913597136735916</v>
+        <v>0.2269459068775177</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6845,7 +6845,7 @@
         <v>0.131616091954023</v>
       </c>
       <c r="B808" t="n">
-        <v>0.1178224682807922</v>
+        <v>0.3219403624534607</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6853,7 +6853,7 @@
         <v>0.1310844827586207</v>
       </c>
       <c r="B809" t="n">
-        <v>0.1279142946004868</v>
+        <v>0.309908926486969</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6861,7 +6861,7 @@
         <v>0.1303770114942529</v>
       </c>
       <c r="B810" t="n">
-        <v>0.1110910177230835</v>
+        <v>0.3028019964694977</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6869,7 +6869,7 @@
         <v>0.1299114942528736</v>
       </c>
       <c r="B811" t="n">
-        <v>0.1546911746263504</v>
+        <v>0.4243663549423218</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6877,7 +6877,7 @@
         <v>0.1284764367816092</v>
       </c>
       <c r="B812" t="n">
-        <v>0.1447093486785889</v>
+        <v>0.5000835061073303</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6885,7 +6885,7 @@
         <v>0.1245109195402299</v>
       </c>
       <c r="B813" t="n">
-        <v>0.3463793694972992</v>
+        <v>0.3963192403316498</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6893,7 +6893,7 @@
         <v>0.1190235632183908</v>
       </c>
       <c r="B814" t="n">
-        <v>0.2022314518690109</v>
+        <v>0.3566970527172089</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6901,7 +6901,7 @@
         <v>0.1138172413793104</v>
       </c>
       <c r="B815" t="n">
-        <v>0.6438785195350647</v>
+        <v>0.5455084443092346</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6909,7 +6909,7 @@
         <v>0.1099005747126437</v>
       </c>
       <c r="B816" t="n">
-        <v>0.1476289927959442</v>
+        <v>0.4028635323047638</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6917,7 +6917,7 @@
         <v>0.1079396551724138</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.1107905805110931</v>
+        <v>0.4034993052482605</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6925,7 +6925,7 @@
         <v>0.105314367816092</v>
       </c>
       <c r="B818" t="n">
-        <v>0.1046706661581993</v>
+        <v>0.5790198445320129</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6933,7 +6933,7 @@
         <v>0.1035528735632184</v>
       </c>
       <c r="B819" t="n">
-        <v>0.2109365910291672</v>
+        <v>0.5985811352729797</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6941,7 +6941,7 @@
         <v>0.1024936781609196</v>
       </c>
       <c r="B820" t="n">
-        <v>0.1944276392459869</v>
+        <v>0.5289604663848877</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6949,7 +6949,7 @@
         <v>0.1028718390804598</v>
       </c>
       <c r="B821" t="n">
-        <v>0.1621467769145966</v>
+        <v>0.5327115058898926</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6957,7 +6957,7 @@
         <v>0.1035442528735632</v>
       </c>
       <c r="B822" t="n">
-        <v>0.2923380434513092</v>
+        <v>0.4844176471233368</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6965,7 +6965,7 @@
         <v>0.104251724137931</v>
       </c>
       <c r="B823" t="n">
-        <v>0.3915961086750031</v>
+        <v>0.49752476811409</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6973,7 +6973,7 @@
         <v>0.1044896551724138</v>
       </c>
       <c r="B824" t="n">
-        <v>0.2739326655864716</v>
+        <v>0.4224790930747986</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6981,7 +6981,7 @@
         <v>0.1066764367816092</v>
       </c>
       <c r="B825" t="n">
-        <v>0.6294452548027039</v>
+        <v>0.4044862687587738</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6989,7 +6989,7 @@
         <v>0.1087545977011494</v>
       </c>
       <c r="B826" t="n">
-        <v>0.2463449090719223</v>
+        <v>0.5516166687011719</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6997,7 +6997,7 @@
         <v>0.1119988505747126</v>
       </c>
       <c r="B827" t="n">
-        <v>0.06177092343568802</v>
+        <v>0.4021616578102112</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7005,7 +7005,7 @@
         <v>0.1145586206896552</v>
       </c>
       <c r="B828" t="n">
-        <v>0.07792754471302032</v>
+        <v>0.3128785490989685</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>0.1171235632183908</v>
       </c>
       <c r="B829" t="n">
-        <v>0.2581541538238525</v>
+        <v>0.4182752966880798</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7021,7 +7021,7 @@
         <v>0.1195931034482759</v>
       </c>
       <c r="B830" t="n">
-        <v>0.1685312539339066</v>
+        <v>0.3910357356071472</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7029,7 +7029,7 @@
         <v>0.1221195402298851</v>
       </c>
       <c r="B831" t="n">
-        <v>0.3428429961204529</v>
+        <v>0.3834394216537476</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7037,7 +7037,7 @@
         <v>0.1232511494252874</v>
       </c>
       <c r="B832" t="n">
-        <v>0.1424022316932678</v>
+        <v>0.3513606488704681</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7045,7 +7045,7 @@
         <v>0.122864367816092</v>
       </c>
       <c r="B833" t="n">
-        <v>0.1372009366750717</v>
+        <v>0.3717933893203735</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7053,7 +7053,7 @@
         <v>0.1218356321839081</v>
       </c>
       <c r="B834" t="n">
-        <v>0.3646731972694397</v>
+        <v>0.3853080570697784</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7061,7 +7061,7 @@
         <v>0.120133908045977</v>
       </c>
       <c r="B835" t="n">
-        <v>0.1315213739871979</v>
+        <v>0.3937724232673645</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7069,7 +7069,7 @@
         <v>0.1185477011494253</v>
       </c>
       <c r="B836" t="n">
-        <v>0.1942549049854279</v>
+        <v>0.3277186751365662</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7077,7 +7077,7 @@
         <v>0.1172534482758621</v>
       </c>
       <c r="B837" t="n">
-        <v>0.188884049654007</v>
+        <v>0.3343736231327057</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7085,7 +7085,7 @@
         <v>0.1171155172413793</v>
       </c>
       <c r="B838" t="n">
-        <v>0.3083072304725647</v>
+        <v>0.3895013332366943</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7093,7 +7093,7 @@
         <v>0.1163436781609195</v>
       </c>
       <c r="B839" t="n">
-        <v>0.1729187220335007</v>
+        <v>0.3892494142055511</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7101,7 +7101,7 @@
         <v>0.1153706896551724</v>
       </c>
       <c r="B840" t="n">
-        <v>0.07724012434482574</v>
+        <v>0.4575409293174744</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7109,7 +7109,7 @@
         <v>0.1145977011494253</v>
       </c>
       <c r="B841" t="n">
-        <v>0.2594604790210724</v>
+        <v>0.3406761884689331</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7117,7 +7117,7 @@
         <v>0.1137511494252874</v>
       </c>
       <c r="B842" t="n">
-        <v>0.3408932089805603</v>
+        <v>0.329670637845993</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7125,7 +7125,7 @@
         <v>0.1134586206896552</v>
       </c>
       <c r="B843" t="n">
-        <v>0.1783145368099213</v>
+        <v>0.2931502461433411</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7133,7 +7133,7 @@
         <v>0.1124862068965517</v>
       </c>
       <c r="B844" t="n">
-        <v>0.303930401802063</v>
+        <v>0.2644459903240204</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7141,7 +7141,7 @@
         <v>0.1104971264367816</v>
       </c>
       <c r="B845" t="n">
-        <v>0.05909742042422295</v>
+        <v>0.2679237425327301</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>0.1076040229885058</v>
       </c>
       <c r="B846" t="n">
-        <v>0.2298231571912766</v>
+        <v>0.1940655410289764</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>0.1052137931034483</v>
       </c>
       <c r="B847" t="n">
-        <v>0.5320085287094116</v>
+        <v>0.1703439205884933</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>0.1023385057471265</v>
       </c>
       <c r="B848" t="n">
-        <v>0.1995262503623962</v>
+        <v>0.1493048667907715</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>0.09887528735632187</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1217500939965248</v>
+        <v>0.256968230009079</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>0.09540172413793105</v>
       </c>
       <c r="B850" t="n">
-        <v>0.2547241449356079</v>
+        <v>0.1488487124443054</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>0.09103505747126438</v>
       </c>
       <c r="B851" t="n">
-        <v>0.1778959780931473</v>
+        <v>0.1447733938694</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>0.08684022988505748</v>
       </c>
       <c r="B852" t="n">
-        <v>0.08729840070009232</v>
+        <v>0.2958374917507172</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>0.08442643678160922</v>
       </c>
       <c r="B853" t="n">
-        <v>0.07711125910282135</v>
+        <v>0.1099164187908173</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>0.08122413793103447</v>
       </c>
       <c r="B854" t="n">
-        <v>0.005968915764242411</v>
+        <v>0.1006252989172935</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>0.0785080459770115</v>
       </c>
       <c r="B855" t="n">
-        <v>0.287542849779129</v>
+        <v>0.2377333343029022</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>0.07567126436781609</v>
       </c>
       <c r="B856" t="n">
-        <v>0.2063426375389099</v>
+        <v>0.1972666382789612</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>0.07422298850574711</v>
       </c>
       <c r="B857" t="n">
-        <v>0.1502810716629028</v>
+        <v>0.1730680763721466</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>0.07329885057471264</v>
       </c>
       <c r="B858" t="n">
-        <v>0.234636202454567</v>
+        <v>0.1824310719966888</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7253,7 +7253,7 @@
         <v>0.072716091954023</v>
       </c>
       <c r="B859" t="n">
-        <v>0.06280158460140228</v>
+        <v>0.3213497698307037</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7261,7 +7261,7 @@
         <v>0.07112586206896554</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1856568604707718</v>
+        <v>0.3423298001289368</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7269,7 +7269,7 @@
         <v>0.07060459770114945</v>
       </c>
       <c r="B861" t="n">
-        <v>0.1539460718631744</v>
+        <v>0.2859510481357574</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7277,7 +7277,7 @@
         <v>0.07109942528735635</v>
       </c>
       <c r="B862" t="n">
-        <v>0.1807932704687119</v>
+        <v>0.2216033041477203</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7285,7 +7285,7 @@
         <v>0.07067528735632186</v>
       </c>
       <c r="B863" t="n">
-        <v>0.2628052830696106</v>
+        <v>0.2469686269760132</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7293,7 +7293,7 @@
         <v>0.06946666666666669</v>
       </c>
       <c r="B864" t="n">
-        <v>0.1720750480890274</v>
+        <v>0.2862481772899628</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7301,7 +7301,7 @@
         <v>0.06818275862068968</v>
       </c>
       <c r="B865" t="n">
-        <v>0.2883172929286957</v>
+        <v>0.404047042131424</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7309,7 +7309,7 @@
         <v>0.06762758620689659</v>
       </c>
       <c r="B866" t="n">
-        <v>0.1766953319311142</v>
+        <v>0.2516726553440094</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7317,7 +7317,7 @@
         <v>0.06733735632183908</v>
       </c>
       <c r="B867" t="n">
-        <v>0.1754385679960251</v>
+        <v>0.2331923246383667</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7325,7 +7325,7 @@
         <v>0.06765977011494255</v>
       </c>
       <c r="B868" t="n">
-        <v>0.1742058247327805</v>
+        <v>0.2856846451759338</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7333,7 +7333,7 @@
         <v>0.06803908045977011</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2381221950054169</v>
+        <v>0.367757111787796</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7341,7 +7341,7 @@
         <v>0.06857528735632183</v>
       </c>
       <c r="B870" t="n">
-        <v>0.1687420904636383</v>
+        <v>0.3163923323154449</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7349,7 +7349,7 @@
         <v>0.0712344827586207</v>
       </c>
       <c r="B871" t="n">
-        <v>0.490477591753006</v>
+        <v>0.2638314366340637</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7357,7 +7357,7 @@
         <v>0.07434770114942529</v>
       </c>
       <c r="B872" t="n">
-        <v>0.3284640312194824</v>
+        <v>0.2040142714977264</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7365,7 +7365,7 @@
         <v>0.0775183908045977</v>
       </c>
       <c r="B873" t="n">
-        <v>0.2981388866901398</v>
+        <v>0.1830781102180481</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7373,7 +7373,7 @@
         <v>0.08069540229885057</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.006297512911260128</v>
+        <v>0.3295221924781799</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7381,7 +7381,7 @@
         <v>0.08372068965517242</v>
       </c>
       <c r="B875" t="n">
-        <v>0.2665735483169556</v>
+        <v>0.2283236384391785</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7389,7 +7389,7 @@
         <v>0.08709080459770115</v>
       </c>
       <c r="B876" t="n">
-        <v>0.2260037809610367</v>
+        <v>0.2176308333873749</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7397,7 +7397,7 @@
         <v>0.09075057471264368</v>
       </c>
       <c r="B877" t="n">
-        <v>0.142712727189064</v>
+        <v>0.2535465955734253</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7405,7 +7405,7 @@
         <v>0.09621149425287356</v>
       </c>
       <c r="B878" t="n">
-        <v>0.2034930288791656</v>
+        <v>0.3174693286418915</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7413,7 +7413,7 @@
         <v>0.1017563218390805</v>
       </c>
       <c r="B879" t="n">
-        <v>0.154707059264183</v>
+        <v>0.3768925070762634</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7421,7 +7421,7 @@
         <v>0.1075218390804598</v>
       </c>
       <c r="B880" t="n">
-        <v>0.2283090949058533</v>
+        <v>0.247234582901001</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7429,7 +7429,7 @@
         <v>0.1133810344827586</v>
       </c>
       <c r="B881" t="n">
-        <v>0.293243795633316</v>
+        <v>0.2980003654956818</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7437,7 +7437,7 @@
         <v>0.1175442528735632</v>
       </c>
       <c r="B882" t="n">
-        <v>0.1763516664505005</v>
+        <v>0.2466714680194855</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7445,7 +7445,7 @@
         <v>0.1211051724137931</v>
       </c>
       <c r="B883" t="n">
-        <v>0.1544261574745178</v>
+        <v>0.3388829529285431</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7453,7 +7453,7 @@
         <v>0.1241522988505747</v>
       </c>
       <c r="B884" t="n">
-        <v>0.1431759297847748</v>
+        <v>0.2754293382167816</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7461,7 +7461,7 @@
         <v>0.1256735632183908</v>
       </c>
       <c r="B885" t="n">
-        <v>0.1331338584423065</v>
+        <v>0.3115316927433014</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7469,7 +7469,7 @@
         <v>0.1248281609195402</v>
       </c>
       <c r="B886" t="n">
-        <v>0.04023545235395432</v>
+        <v>0.3375449478626251</v>
       </c>
     </row>
   </sheetData>
@@ -7501,10 +7501,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>-0.03480634829260729</v>
+        <v>0.3416276657252439</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4209499530509715</v>
+        <v>0.3424176684642505</v>
       </c>
     </row>
   </sheetData>
